--- a/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
+++ b/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13820" tabRatio="884" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13820" tabRatio="884" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
     <t>Administracion</t>
   </si>
   <si>
-    <t>pamcho3</t>
+    <t>pamcho4</t>
   </si>
 </sst>
 </file>
@@ -3512,6 +3512,30 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="19" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="12" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="45" fillId="12" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3575,38 +3599,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="19" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="12" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="45" fillId="12" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="326">
@@ -15389,7 +15389,7 @@
       <c r="L6" s="100"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="318" t="s">
+      <c r="B7" s="330" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="51" t="s">
@@ -15433,7 +15433,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="319"/>
+      <c r="B8" s="331"/>
       <c r="C8" s="51" t="s">
         <v>33</v>
       </c>
@@ -15475,7 +15475,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="319"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="51" t="s">
         <v>34</v>
       </c>
@@ -15517,7 +15517,7 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="319"/>
+      <c r="B10" s="331"/>
       <c r="C10" s="51" t="s">
         <v>35</v>
       </c>
@@ -15559,7 +15559,7 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="319"/>
+      <c r="B11" s="331"/>
       <c r="C11" s="51" t="s">
         <v>36</v>
       </c>
@@ -15601,7 +15601,7 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="319"/>
+      <c r="B12" s="331"/>
       <c r="C12" s="51" t="s">
         <v>39</v>
       </c>
@@ -15643,7 +15643,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="319"/>
+      <c r="B13" s="331"/>
       <c r="C13" s="51" t="s">
         <v>42</v>
       </c>
@@ -15685,7 +15685,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="319"/>
+      <c r="B14" s="331"/>
       <c r="C14" s="51" t="s">
         <v>43</v>
       </c>
@@ -15727,7 +15727,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="319"/>
+      <c r="B15" s="331"/>
       <c r="C15" s="51" t="s">
         <v>37</v>
       </c>
@@ -15769,7 +15769,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="319"/>
+      <c r="B16" s="331"/>
       <c r="C16" s="51" t="s">
         <v>38</v>
       </c>
@@ -15811,7 +15811,7 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="319"/>
+      <c r="B17" s="331"/>
       <c r="C17" s="78" t="s">
         <v>225</v>
       </c>
@@ -15826,7 +15826,7 @@
       <c r="L17" s="100"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="319"/>
+      <c r="B18" s="331"/>
       <c r="C18" s="51" t="s">
         <v>7</v>
       </c>
@@ -15868,7 +15868,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="319"/>
+      <c r="B19" s="331"/>
       <c r="C19" s="51" t="s">
         <v>21</v>
       </c>
@@ -15910,7 +15910,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="319"/>
+      <c r="B20" s="331"/>
       <c r="C20" s="51" t="s">
         <v>22</v>
       </c>
@@ -15952,7 +15952,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="320"/>
+      <c r="B21" s="332"/>
       <c r="C21" s="106" t="s">
         <v>226</v>
       </c>
@@ -15994,7 +15994,7 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="327" t="s">
         <v>227</v>
       </c>
       <c r="C22" s="147" t="str">
@@ -16039,7 +16039,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="30">
-      <c r="B23" s="316"/>
+      <c r="B23" s="328"/>
       <c r="C23" s="147" t="str">
         <f>'Costos Indirectos'!B8</f>
         <v>Respuestos y Mantenimiento</v>
@@ -16082,7 +16082,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="30">
-      <c r="B24" s="316"/>
+      <c r="B24" s="328"/>
       <c r="C24" s="147" t="str">
         <f>'Costos Indirectos'!B9</f>
         <v>Depreciación de maquinaria</v>
@@ -16125,7 +16125,7 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="316"/>
+      <c r="B25" s="328"/>
       <c r="C25" s="147" t="str">
         <f>'Costos Indirectos'!B10</f>
         <v>MO Indirecta</v>
@@ -16168,7 +16168,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="36">
-      <c r="B26" s="317"/>
+      <c r="B26" s="329"/>
       <c r="C26" s="106" t="s">
         <v>230</v>
       </c>
@@ -16424,7 +16424,7 @@
       <c r="L35" s="100"/>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="318" t="s">
+      <c r="B36" s="330" t="s">
         <v>224</v>
       </c>
       <c r="C36" s="51" t="s">
@@ -16468,7 +16468,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="319"/>
+      <c r="B37" s="331"/>
       <c r="C37" s="51" t="s">
         <v>33</v>
       </c>
@@ -16510,7 +16510,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="319"/>
+      <c r="B38" s="331"/>
       <c r="C38" s="51" t="s">
         <v>34</v>
       </c>
@@ -16552,7 +16552,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="319"/>
+      <c r="B39" s="331"/>
       <c r="C39" s="51" t="s">
         <v>35</v>
       </c>
@@ -16594,7 +16594,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="319"/>
+      <c r="B40" s="331"/>
       <c r="C40" s="51" t="s">
         <v>36</v>
       </c>
@@ -16636,7 +16636,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="319"/>
+      <c r="B41" s="331"/>
       <c r="C41" s="51" t="s">
         <v>39</v>
       </c>
@@ -16678,7 +16678,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="319"/>
+      <c r="B42" s="331"/>
       <c r="C42" s="51" t="s">
         <v>42</v>
       </c>
@@ -16720,7 +16720,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="319"/>
+      <c r="B43" s="331"/>
       <c r="C43" s="51" t="s">
         <v>43</v>
       </c>
@@ -16762,7 +16762,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="319"/>
+      <c r="B44" s="331"/>
       <c r="C44" s="51" t="s">
         <v>37</v>
       </c>
@@ -16804,7 +16804,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="319"/>
+      <c r="B45" s="331"/>
       <c r="C45" s="51" t="s">
         <v>38</v>
       </c>
@@ -16846,7 +16846,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="319"/>
+      <c r="B46" s="331"/>
       <c r="C46" s="78" t="s">
         <v>225</v>
       </c>
@@ -16861,7 +16861,7 @@
       <c r="L46" s="100"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="319"/>
+      <c r="B47" s="331"/>
       <c r="C47" s="51" t="s">
         <v>7</v>
       </c>
@@ -16903,7 +16903,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="319"/>
+      <c r="B48" s="331"/>
       <c r="C48" s="51" t="s">
         <v>46</v>
       </c>
@@ -16945,7 +16945,7 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="15" customHeight="1">
-      <c r="B49" s="319"/>
+      <c r="B49" s="331"/>
       <c r="C49" s="51" t="s">
         <v>22</v>
       </c>
@@ -16987,7 +16987,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="18">
-      <c r="B50" s="320"/>
+      <c r="B50" s="332"/>
       <c r="C50" s="106" t="s">
         <v>226</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="315" t="s">
+      <c r="B51" s="327" t="s">
         <v>227</v>
       </c>
       <c r="C51" s="147" t="s">
@@ -17073,7 +17073,7 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="30">
-      <c r="B52" s="316"/>
+      <c r="B52" s="328"/>
       <c r="C52" s="147" t="s">
         <v>338</v>
       </c>
@@ -17115,7 +17115,7 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="30">
-      <c r="B53" s="316"/>
+      <c r="B53" s="328"/>
       <c r="C53" s="147" t="s">
         <v>339</v>
       </c>
@@ -17157,7 +17157,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="316"/>
+      <c r="B54" s="328"/>
       <c r="C54" s="147" t="s">
         <v>228</v>
       </c>
@@ -17199,7 +17199,7 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="36">
-      <c r="B55" s="317"/>
+      <c r="B55" s="329"/>
       <c r="C55" s="106" t="s">
         <v>230</v>
       </c>
@@ -17455,7 +17455,7 @@
       <c r="L64" s="100"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="318" t="s">
+      <c r="B65" s="330" t="s">
         <v>224</v>
       </c>
       <c r="C65" s="51" t="s">
@@ -17499,7 +17499,7 @@
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="319"/>
+      <c r="B66" s="331"/>
       <c r="C66" s="51" t="s">
         <v>33</v>
       </c>
@@ -17541,7 +17541,7 @@
       </c>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="319"/>
+      <c r="B67" s="331"/>
       <c r="C67" s="51" t="s">
         <v>34</v>
       </c>
@@ -17583,7 +17583,7 @@
       </c>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="319"/>
+      <c r="B68" s="331"/>
       <c r="C68" s="51" t="s">
         <v>35</v>
       </c>
@@ -17625,7 +17625,7 @@
       </c>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="319"/>
+      <c r="B69" s="331"/>
       <c r="C69" s="51" t="s">
         <v>36</v>
       </c>
@@ -17667,7 +17667,7 @@
       </c>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="319"/>
+      <c r="B70" s="331"/>
       <c r="C70" s="51" t="s">
         <v>39</v>
       </c>
@@ -17709,7 +17709,7 @@
       </c>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="319"/>
+      <c r="B71" s="331"/>
       <c r="C71" s="51" t="s">
         <v>42</v>
       </c>
@@ -17751,7 +17751,7 @@
       </c>
     </row>
     <row r="72" spans="2:12">
-      <c r="B72" s="319"/>
+      <c r="B72" s="331"/>
       <c r="C72" s="51" t="s">
         <v>43</v>
       </c>
@@ -17793,7 +17793,7 @@
       </c>
     </row>
     <row r="73" spans="2:12">
-      <c r="B73" s="319"/>
+      <c r="B73" s="331"/>
       <c r="C73" s="51" t="s">
         <v>37</v>
       </c>
@@ -17835,7 +17835,7 @@
       </c>
     </row>
     <row r="74" spans="2:12">
-      <c r="B74" s="319"/>
+      <c r="B74" s="331"/>
       <c r="C74" s="51" t="s">
         <v>38</v>
       </c>
@@ -17877,7 +17877,7 @@
       </c>
     </row>
     <row r="75" spans="2:12">
-      <c r="B75" s="319"/>
+      <c r="B75" s="331"/>
       <c r="C75" s="78" t="s">
         <v>225</v>
       </c>
@@ -17892,7 +17892,7 @@
       <c r="L75" s="100"/>
     </row>
     <row r="76" spans="2:12" ht="15" customHeight="1">
-      <c r="B76" s="319"/>
+      <c r="B76" s="331"/>
       <c r="C76" s="51" t="s">
         <v>7</v>
       </c>
@@ -17934,7 +17934,7 @@
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="B77" s="319"/>
+      <c r="B77" s="331"/>
       <c r="C77" s="51" t="s">
         <v>46</v>
       </c>
@@ -17976,7 +17976,7 @@
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="319"/>
+      <c r="B78" s="331"/>
       <c r="C78" s="51" t="s">
         <v>22</v>
       </c>
@@ -18018,7 +18018,7 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="18">
-      <c r="B79" s="320"/>
+      <c r="B79" s="332"/>
       <c r="C79" s="106" t="s">
         <v>226</v>
       </c>
@@ -18060,7 +18060,7 @@
       </c>
     </row>
     <row r="80" spans="2:12">
-      <c r="B80" s="315" t="s">
+      <c r="B80" s="327" t="s">
         <v>227</v>
       </c>
       <c r="C80" s="147" t="s">
@@ -18104,7 +18104,7 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="30">
-      <c r="B81" s="316"/>
+      <c r="B81" s="328"/>
       <c r="C81" s="147" t="s">
         <v>338</v>
       </c>
@@ -18146,7 +18146,7 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="30">
-      <c r="B82" s="316"/>
+      <c r="B82" s="328"/>
       <c r="C82" s="147" t="s">
         <v>339</v>
       </c>
@@ -18188,7 +18188,7 @@
       </c>
     </row>
     <row r="83" spans="2:12">
-      <c r="B83" s="316"/>
+      <c r="B83" s="328"/>
       <c r="C83" s="147" t="s">
         <v>228</v>
       </c>
@@ -18230,7 +18230,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" ht="36">
-      <c r="B84" s="317"/>
+      <c r="B84" s="329"/>
       <c r="C84" s="106" t="s">
         <v>230</v>
       </c>
@@ -18467,11 +18467,11 @@
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="18">
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="333" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
     </row>
     <row r="6" spans="2:7" ht="72">
       <c r="B6" s="106" t="s">
@@ -19034,11 +19034,11 @@
       <c r="J32" s="58"/>
     </row>
     <row r="33" spans="2:12" ht="18">
-      <c r="B33" s="321" t="s">
+      <c r="B33" s="333" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="321"/>
-      <c r="D33" s="321"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="333"/>
     </row>
     <row r="35" spans="2:12" ht="18">
       <c r="B35" s="106" t="s">
@@ -20004,11 +20004,11 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="18" customHeight="1">
-      <c r="B62" s="321" t="s">
+      <c r="B62" s="333" t="s">
         <v>445</v>
       </c>
-      <c r="C62" s="321"/>
-      <c r="D62" s="321"/>
+      <c r="C62" s="333"/>
+      <c r="D62" s="333"/>
     </row>
     <row r="64" spans="2:12" ht="36">
       <c r="B64" s="106" t="s">
@@ -20974,11 +20974,11 @@
       </c>
     </row>
     <row r="91" spans="2:12" ht="18" customHeight="1">
-      <c r="B91" s="321" t="s">
+      <c r="B91" s="333" t="s">
         <v>447</v>
       </c>
-      <c r="C91" s="321"/>
-      <c r="D91" s="321"/>
+      <c r="C91" s="333"/>
+      <c r="D91" s="333"/>
     </row>
     <row r="93" spans="2:12" ht="18">
       <c r="B93" s="106" t="s">
@@ -21944,11 +21944,11 @@
       </c>
     </row>
     <row r="120" spans="2:12" ht="18">
-      <c r="B120" s="322" t="s">
+      <c r="B120" s="334" t="s">
         <v>448</v>
       </c>
-      <c r="C120" s="322"/>
-      <c r="D120" s="322"/>
+      <c r="C120" s="334"/>
+      <c r="D120" s="334"/>
     </row>
     <row r="122" spans="2:12" ht="18">
       <c r="B122" s="205"/>
@@ -22119,11 +22119,11 @@
       </c>
     </row>
     <row r="127" spans="2:12" ht="18">
-      <c r="B127" s="321" t="s">
+      <c r="B127" s="333" t="s">
         <v>449</v>
       </c>
-      <c r="C127" s="321"/>
-      <c r="D127" s="321"/>
+      <c r="C127" s="333"/>
+      <c r="D127" s="333"/>
     </row>
     <row r="129" spans="2:12" ht="36">
       <c r="B129" s="106" t="s">
@@ -22921,10 +22921,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="18">
-      <c r="B17" s="324" t="s">
+      <c r="B17" s="335" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="324"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="106">
         <v>2013</v>
       </c>
@@ -22954,11 +22954,11 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="323" t="str">
+      <c r="B18" s="336" t="str">
         <f>'Plan de Ventas'!B7</f>
         <v xml:space="preserve">Grissini </v>
       </c>
-      <c r="C18" s="323"/>
+      <c r="C18" s="336"/>
       <c r="D18" s="18">
         <f>'Plan de producción'!D39</f>
         <v>738741.66666666663</v>
@@ -22997,11 +22997,11 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="323" t="str">
+      <c r="B19" s="336" t="str">
         <f>'Plan de Ventas'!B8</f>
         <v>Kamish</v>
       </c>
-      <c r="C19" s="323"/>
+      <c r="C19" s="336"/>
       <c r="D19" s="18">
         <f>'Plan de producción'!D40</f>
         <v>631001.38888888876</v>
@@ -23040,11 +23040,11 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="323" t="str">
+      <c r="B20" s="336" t="str">
         <f>'Plan de Ventas'!B9</f>
         <v>Roscas con pisco</v>
       </c>
-      <c r="C20" s="323"/>
+      <c r="C20" s="336"/>
       <c r="D20" s="18">
         <f>'Plan de producción'!D41</f>
         <v>505055.5555555555</v>
@@ -23088,11 +23088,11 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="18">
-      <c r="B24" s="324" t="str">
+      <c r="B24" s="335" t="str">
         <f>B17</f>
         <v>Producto</v>
       </c>
-      <c r="C24" s="324"/>
+      <c r="C24" s="335"/>
       <c r="D24" s="106">
         <f t="shared" ref="D24:L24" si="1">D17</f>
         <v>2013</v>
@@ -23131,11 +23131,11 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="323" t="str">
+      <c r="B25" s="336" t="str">
         <f t="shared" ref="B25:B26" si="2">B18</f>
         <v xml:space="preserve">Grissini </v>
       </c>
-      <c r="C25" s="323"/>
+      <c r="C25" s="336"/>
       <c r="D25" s="190">
         <f t="shared" ref="D25:L25" si="3">D18/SUM(D$18:D$20)</f>
         <v>0.39403787814246716</v>
@@ -23174,11 +23174,11 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="323" t="str">
+      <c r="B26" s="336" t="str">
         <f t="shared" si="2"/>
         <v>Kamish</v>
       </c>
-      <c r="C26" s="323"/>
+      <c r="C26" s="336"/>
       <c r="D26" s="190">
         <f t="shared" ref="D26:L26" si="4">D19/SUM(D$18:D$20)</f>
         <v>0.33657022420926686</v>
@@ -23217,11 +23217,11 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="323" t="str">
+      <c r="B27" s="336" t="str">
         <f>B20</f>
         <v>Roscas con pisco</v>
       </c>
-      <c r="C27" s="323"/>
+      <c r="C27" s="336"/>
       <c r="D27" s="190">
         <f t="shared" ref="D27:L27" si="5">D20/SUM(D$18:D$20)</f>
         <v>0.26939189764826593</v>
@@ -23285,10 +23285,10 @@
       <c r="A33" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="324" t="s">
+      <c r="B33" s="335" t="s">
         <v>342</v>
       </c>
-      <c r="C33" s="324"/>
+      <c r="C33" s="335"/>
       <c r="D33" s="106">
         <f t="shared" ref="D33:L33" si="6">D24</f>
         <v>2013</v>
@@ -23327,11 +23327,11 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="B34" s="323" t="str">
+      <c r="B34" s="336" t="str">
         <f>B7</f>
         <v>Servicios</v>
       </c>
-      <c r="C34" s="323"/>
+      <c r="C34" s="336"/>
       <c r="D34" s="18">
         <f t="shared" ref="D34:L34" si="7">D$25*D7</f>
         <v>0</v>
@@ -23370,11 +23370,11 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="B35" s="323" t="str">
+      <c r="B35" s="336" t="str">
         <f>B8</f>
         <v>Respuestos y Mantenimiento</v>
       </c>
-      <c r="C35" s="323"/>
+      <c r="C35" s="336"/>
       <c r="D35" s="18">
         <f t="shared" ref="D35:L35" si="8">D$25*D8</f>
         <v>38504.247115540187</v>
@@ -23413,11 +23413,11 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="B36" s="323" t="str">
+      <c r="B36" s="336" t="str">
         <f>B9</f>
         <v>Depreciación de maquinaria</v>
       </c>
-      <c r="C36" s="323"/>
+      <c r="C36" s="336"/>
       <c r="D36" s="18">
         <f t="shared" ref="D36:L36" si="9">D$25*D9</f>
         <v>552062.04071696592</v>
@@ -23456,11 +23456,11 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="B37" s="323" t="str">
+      <c r="B37" s="336" t="str">
         <f>B10</f>
         <v>MO Indirecta</v>
       </c>
-      <c r="C37" s="323"/>
+      <c r="C37" s="336"/>
       <c r="D37" s="18">
         <f t="shared" ref="D37:L37" si="10">D$25*D10</f>
         <v>7409559.1874090182</v>
@@ -23508,11 +23508,11 @@
       <c r="A41" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="B41" s="324" t="str">
+      <c r="B41" s="335" t="str">
         <f t="shared" ref="B41" si="11">B33</f>
         <v>Categoría</v>
       </c>
-      <c r="C41" s="324"/>
+      <c r="C41" s="335"/>
       <c r="D41" s="106">
         <f t="shared" ref="D41:L41" si="12">D33</f>
         <v>2013</v>
@@ -23551,11 +23551,11 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="323" t="str">
+      <c r="B42" s="336" t="str">
         <f>B34</f>
         <v>Servicios</v>
       </c>
-      <c r="C42" s="323"/>
+      <c r="C42" s="336"/>
       <c r="D42" s="18">
         <f t="shared" ref="D42:L42" si="13">D$26*D7</f>
         <v>0</v>
@@ -23594,11 +23594,11 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="B43" s="323" t="str">
+      <c r="B43" s="336" t="str">
         <f>B35</f>
         <v>Respuestos y Mantenimiento</v>
       </c>
-      <c r="C43" s="323"/>
+      <c r="C43" s="336"/>
       <c r="D43" s="18">
         <f t="shared" ref="D43:L43" si="14">D$26*D8</f>
         <v>32888.673408196613</v>
@@ -23637,11 +23637,11 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="B44" s="323" t="str">
+      <c r="B44" s="336" t="str">
         <f>B36</f>
         <v>Depreciación de maquinaria</v>
       </c>
-      <c r="C44" s="323"/>
+      <c r="C44" s="336"/>
       <c r="D44" s="18">
         <f t="shared" ref="D44:L44" si="15">D$26*D9</f>
         <v>471547.67378570279</v>
@@ -23680,11 +23680,11 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="323" t="str">
+      <c r="B45" s="336" t="str">
         <f>B37</f>
         <v>MO Indirecta</v>
       </c>
-      <c r="C45" s="323"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="18">
         <f t="shared" ref="D45:L45" si="16">D$26*D10</f>
         <v>6328927.0786714116</v>
@@ -23732,11 +23732,11 @@
       <c r="A49" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="324" t="str">
+      <c r="B49" s="335" t="str">
         <f t="shared" ref="B49" si="17">B41</f>
         <v>Categoría</v>
       </c>
-      <c r="C49" s="324"/>
+      <c r="C49" s="335"/>
       <c r="D49" s="106">
         <f t="shared" ref="D49:L49" si="18">D41</f>
         <v>2013</v>
@@ -23775,11 +23775,11 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="B50" s="323" t="str">
+      <c r="B50" s="336" t="str">
         <f>B42</f>
         <v>Servicios</v>
       </c>
-      <c r="C50" s="323"/>
+      <c r="C50" s="336"/>
       <c r="D50" s="18">
         <f t="shared" ref="D50:L50" si="19">D$27*D7</f>
         <v>0</v>
@@ -23818,11 +23818,11 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="B51" s="323" t="str">
+      <c r="B51" s="336" t="str">
         <f t="shared" ref="B51:B53" si="20">B43</f>
         <v>Respuestos y Mantenimiento</v>
       </c>
-      <c r="C51" s="323"/>
+      <c r="C51" s="336"/>
       <c r="D51" s="18">
         <f t="shared" ref="D51:L51" si="21">D$27*D8</f>
         <v>26324.200726263192</v>
@@ -23861,11 +23861,11 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="B52" s="323" t="str">
+      <c r="B52" s="336" t="str">
         <f t="shared" si="20"/>
         <v>Depreciación de maquinaria</v>
       </c>
-      <c r="C52" s="323"/>
+      <c r="C52" s="336"/>
       <c r="D52" s="18">
         <f t="shared" ref="D52:L52" si="22">D$27*D9</f>
         <v>377428.28549733118</v>
@@ -23904,11 +23904,11 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="B53" s="323" t="str">
+      <c r="B53" s="336" t="str">
         <f t="shared" si="20"/>
         <v>MO Indirecta</v>
       </c>
-      <c r="C53" s="323"/>
+      <c r="C53" s="336"/>
       <c r="D53" s="18">
         <f t="shared" ref="D53:L53" si="23">D$27*D10</f>
         <v>5065693.7339195693</v>
@@ -23948,11 +23948,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -23965,12 +23966,11 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -25177,12 +25177,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="337" t="s">
         <v>520</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
     </row>
     <row r="4" spans="2:11" ht="18">
       <c r="B4" s="173" t="s">
@@ -26068,10 +26068,10 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" ht="18">
-      <c r="E11" s="302" t="s">
+      <c r="E11" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="303"/>
+      <c r="F11" s="315"/>
     </row>
     <row r="12" spans="2:7" ht="36">
       <c r="B12" s="106" t="s">
@@ -26162,10 +26162,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="18">
-      <c r="E19" s="302" t="s">
+      <c r="E19" s="314" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="303"/>
+      <c r="F19" s="315"/>
     </row>
     <row r="20" spans="2:10" ht="36">
       <c r="B20" s="106" t="s">
@@ -28189,10 +28189,10 @@
       </c>
     </row>
     <row r="195" spans="2:3" ht="18">
-      <c r="B195" s="302" t="s">
+      <c r="B195" s="314" t="s">
         <v>407</v>
       </c>
-      <c r="C195" s="303"/>
+      <c r="C195" s="315"/>
     </row>
     <row r="196" spans="2:3" ht="18">
       <c r="B196" s="215" t="s">
@@ -28290,10 +28290,10 @@
       <c r="C213" s="20"/>
     </row>
     <row r="214" spans="2:3" ht="18">
-      <c r="B214" s="302" t="s">
+      <c r="B214" s="314" t="s">
         <v>459</v>
       </c>
-      <c r="C214" s="303"/>
+      <c r="C214" s="315"/>
     </row>
     <row r="215" spans="2:3" ht="18">
       <c r="B215" s="215" t="s">
@@ -28384,11 +28384,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="337" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
     </row>
     <row r="4" spans="2:11" ht="18">
       <c r="B4" s="274" t="s">
@@ -29493,11 +29493,11 @@
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="2:11" ht="18">
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="333" t="s">
         <v>453</v>
       </c>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
       <c r="G4" s="146"/>
@@ -30023,11 +30023,11 @@
       <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11" ht="18" customHeight="1">
-      <c r="B22" s="321" t="s">
+      <c r="B22" s="333" t="s">
         <v>454</v>
       </c>
-      <c r="C22" s="321"/>
-      <c r="D22" s="321"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="333"/>
       <c r="E22" s="110"/>
       <c r="F22" s="110"/>
       <c r="G22" s="110"/>
@@ -30821,7 +30821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -30898,253 +30898,253 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="326" t="s">
+      <c r="B5" s="302" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="327">
+      <c r="C5" s="303">
         <f>'Plan de Ventas'!C25</f>
         <v>153180622.88135594</v>
       </c>
-      <c r="D5" s="327">
+      <c r="D5" s="303">
         <f>'Plan de Ventas'!D25</f>
         <v>156620864.93984744</v>
       </c>
-      <c r="E5" s="327">
+      <c r="E5" s="303">
         <f>'Plan de Ventas'!E25</f>
         <v>160353599.78476787</v>
       </c>
-      <c r="F5" s="327">
+      <c r="F5" s="303">
         <f>'Plan de Ventas'!F25</f>
         <v>163721231.3061325</v>
       </c>
-      <c r="G5" s="327">
+      <c r="G5" s="303">
         <f>'Plan de Ventas'!G25</f>
         <v>167317359.38633537</v>
       </c>
-      <c r="H5" s="327">
+      <c r="H5" s="303">
         <f>'Plan de Ventas'!H25</f>
         <v>171948525.38193595</v>
       </c>
-      <c r="I5" s="327">
+      <c r="I5" s="303">
         <f>'Plan de Ventas'!I25</f>
         <v>175462919.60440016</v>
       </c>
-      <c r="J5" s="327">
+      <c r="J5" s="303">
         <f>'Plan de Ventas'!J25</f>
         <v>179225243.23890916</v>
       </c>
-      <c r="K5" s="327">
+      <c r="K5" s="303">
         <f>'Plan de Ventas'!K25</f>
         <v>182873896.09118131</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="326" t="s">
+      <c r="B6" s="302" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="327">
+      <c r="C6" s="303">
         <f>'Cuentas x Cobrar'!C10</f>
         <v>1265271.9449999998</v>
       </c>
-      <c r="D6" s="327">
+      <c r="D6" s="303">
         <f>'Cuentas x Cobrar'!D9</f>
         <v>25873766.88806279</v>
       </c>
-      <c r="E6" s="327">
+      <c r="E6" s="303">
         <f>'Cuentas x Cobrar'!E9</f>
         <v>26490414.684443645</v>
       </c>
-      <c r="F6" s="327">
+      <c r="F6" s="303">
         <f>'Cuentas x Cobrar'!F9</f>
         <v>27046747.411773086</v>
       </c>
-      <c r="G6" s="327">
+      <c r="G6" s="303">
         <f>'Cuentas x Cobrar'!G9</f>
         <v>27640827.7706226</v>
       </c>
-      <c r="H6" s="327">
+      <c r="H6" s="303">
         <f>'Cuentas x Cobrar'!H9</f>
         <v>28405896.393095817</v>
       </c>
-      <c r="I6" s="327">
+      <c r="I6" s="303">
         <f>'Cuentas x Cobrar'!I9</f>
         <v>28986474.318646904</v>
       </c>
-      <c r="J6" s="327">
+      <c r="J6" s="303">
         <f>'Cuentas x Cobrar'!J9</f>
         <v>29608010.183067784</v>
       </c>
-      <c r="K6" s="327">
+      <c r="K6" s="303">
         <f>'Cuentas x Cobrar'!K9</f>
         <v>30210767.634263147</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="328" t="s">
+      <c r="B7" s="304" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="327">
+      <c r="C7" s="303">
         <f>'Costo de ventas'!D38</f>
         <v>165375836.88916117</v>
       </c>
-      <c r="D7" s="327">
+      <c r="D7" s="303">
         <f>'Costo de ventas'!E38</f>
         <v>166874245.75337958</v>
       </c>
-      <c r="E7" s="327">
+      <c r="E7" s="303">
         <f>'Costo de ventas'!F38</f>
         <v>168821575.05213097</v>
       </c>
-      <c r="F7" s="327">
+      <c r="F7" s="303">
         <f>'Costo de ventas'!G38</f>
         <v>171671060.53304312</v>
       </c>
-      <c r="G7" s="327">
+      <c r="G7" s="303">
         <f>'Costo de ventas'!H38</f>
         <v>174686386.93366829</v>
       </c>
-      <c r="H7" s="327">
+      <c r="H7" s="303">
         <f>'Costo de ventas'!I38</f>
         <v>178212628.93191189</v>
       </c>
-      <c r="I7" s="327">
+      <c r="I7" s="303">
         <f>'Costo de ventas'!J38</f>
         <v>181343354.11142123</v>
       </c>
-      <c r="J7" s="327">
+      <c r="J7" s="303">
         <f>'Costo de ventas'!K38</f>
         <v>184419435.29316992</v>
       </c>
-      <c r="K7" s="327">
+      <c r="K7" s="303">
         <f>'Costo de ventas'!L38</f>
         <v>187226483.37566379</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="329" t="s">
+      <c r="B8" s="305" t="s">
         <v>468</v>
       </c>
-      <c r="C8" s="330">
+      <c r="C8" s="306">
         <f>C5-C6-C7</f>
         <v>-13460485.952805221</v>
       </c>
-      <c r="D8" s="330">
+      <c r="D8" s="306">
         <f t="shared" ref="D8:K8" si="0">D5-D6-D7</f>
         <v>-36127147.701594934</v>
       </c>
-      <c r="E8" s="330">
+      <c r="E8" s="306">
         <f t="shared" si="0"/>
         <v>-34958389.951806754</v>
       </c>
-      <c r="F8" s="330">
+      <c r="F8" s="306">
         <f t="shared" si="0"/>
         <v>-34996576.638683707</v>
       </c>
-      <c r="G8" s="330">
+      <c r="G8" s="306">
         <f t="shared" si="0"/>
         <v>-35009855.317955524</v>
       </c>
-      <c r="H8" s="330">
+      <c r="H8" s="306">
         <f t="shared" si="0"/>
         <v>-34669999.943071753</v>
       </c>
-      <c r="I8" s="330">
+      <c r="I8" s="306">
         <f t="shared" si="0"/>
         <v>-34866908.825667977</v>
       </c>
-      <c r="J8" s="330">
+      <c r="J8" s="306">
         <f t="shared" si="0"/>
         <v>-34802202.237328529</v>
       </c>
-      <c r="K8" s="330">
+      <c r="K8" s="306">
         <f t="shared" si="0"/>
         <v>-34563354.918745637</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="328" t="s">
+      <c r="B9" s="304" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="327">
+      <c r="C9" s="303">
         <f>Gastos!C18</f>
         <v>51097760.371111102</v>
       </c>
-      <c r="D9" s="327">
+      <c r="D9" s="303">
         <f>Gastos!D18</f>
         <v>51656344.580072224</v>
       </c>
-      <c r="E9" s="327">
+      <c r="E9" s="303">
         <f>Gastos!E18</f>
         <v>52167644.430585578</v>
       </c>
-      <c r="F9" s="327">
+      <c r="F9" s="303">
         <f>Gastos!F18</f>
         <v>53008011.015096411</v>
       </c>
-      <c r="G9" s="327">
+      <c r="G9" s="303">
         <f>Gastos!G18</f>
         <v>53728559.103799902</v>
       </c>
-      <c r="H9" s="327">
+      <c r="H9" s="303">
         <f>Gastos!H18</f>
         <v>54385435.418976769</v>
       </c>
-      <c r="I9" s="327">
+      <c r="I9" s="303">
         <f>Gastos!I18</f>
         <v>55494121.276720099</v>
       </c>
-      <c r="J9" s="327">
+      <c r="J9" s="303">
         <f>Gastos!J18</f>
         <v>56127756.886328228</v>
       </c>
-      <c r="K9" s="327">
+      <c r="K9" s="303">
         <f>Gastos!K18</f>
         <v>56594420.32494013</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="328" t="s">
+      <c r="B10" s="304" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="327">
+      <c r="C10" s="303">
         <f>Gastos!C10</f>
         <v>3064173.937627119</v>
       </c>
-      <c r="D10" s="327">
+      <c r="D10" s="303">
         <f>Gastos!D10</f>
         <v>3132985.1438669488</v>
       </c>
-      <c r="E10" s="327">
+      <c r="E10" s="303">
         <f>Gastos!E10</f>
         <v>3207644.8606001073</v>
       </c>
-      <c r="F10" s="327">
+      <c r="F10" s="303">
         <f>Gastos!F10</f>
         <v>3275003.7627282729</v>
       </c>
-      <c r="G10" s="327">
+      <c r="G10" s="303">
         <f>Gastos!G10</f>
         <v>3346932.625098668</v>
       </c>
-      <c r="H10" s="327">
+      <c r="H10" s="303">
         <f>Gastos!H10</f>
         <v>3439563.2430991456</v>
       </c>
-      <c r="I10" s="327">
+      <c r="I10" s="303">
         <f>Gastos!I10</f>
         <v>3509857.2548981751</v>
       </c>
-      <c r="J10" s="327">
+      <c r="J10" s="303">
         <f>Gastos!J10</f>
         <v>3585110.5095519023</v>
       </c>
-      <c r="K10" s="327">
+      <c r="K10" s="303">
         <f>Gastos!K10</f>
         <v>3658089.7873311592</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="304" t="s">
         <v>258</v>
       </c>
       <c r="C11" s="257">
@@ -31185,571 +31185,571 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="329" t="s">
+      <c r="B12" s="305" t="s">
         <v>469</v>
       </c>
-      <c r="C12" s="330">
+      <c r="C12" s="306">
         <f>C8-C9-C10-C11</f>
         <v>-67622420.261543438</v>
       </c>
-      <c r="D12" s="330">
+      <c r="D12" s="306">
         <f t="shared" ref="D12:K12" si="1">D8-D9-D10-D11</f>
         <v>-90916477.425534099</v>
       </c>
-      <c r="E12" s="330">
+      <c r="E12" s="306">
         <f t="shared" si="1"/>
         <v>-92293679.242992446</v>
       </c>
-      <c r="F12" s="330">
+      <c r="F12" s="306">
         <f t="shared" si="1"/>
         <v>-94199591.416508391</v>
       </c>
-      <c r="G12" s="330">
+      <c r="G12" s="306">
         <f t="shared" si="1"/>
         <v>-95965347.046854109</v>
       </c>
-      <c r="H12" s="330">
+      <c r="H12" s="306">
         <f t="shared" si="1"/>
         <v>-97334998.60514766</v>
       </c>
-      <c r="I12" s="330">
+      <c r="I12" s="306">
         <f t="shared" si="1"/>
         <v>-99670887.35728626</v>
       </c>
-      <c r="J12" s="330">
+      <c r="J12" s="306">
         <f t="shared" si="1"/>
         <v>-101275069.63320865</v>
       </c>
-      <c r="K12" s="330">
+      <c r="K12" s="306">
         <f t="shared" si="1"/>
         <v>-102535865.03101693</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="328" t="s">
+      <c r="B13" s="304" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="327">
-        <v>0</v>
-      </c>
-      <c r="D13" s="327">
-        <v>0</v>
-      </c>
-      <c r="E13" s="327">
-        <v>0</v>
-      </c>
-      <c r="F13" s="327">
-        <v>0</v>
-      </c>
-      <c r="G13" s="327">
-        <v>0</v>
-      </c>
-      <c r="H13" s="327">
-        <v>0</v>
-      </c>
-      <c r="I13" s="327">
-        <v>0</v>
-      </c>
-      <c r="J13" s="327">
-        <v>0</v>
-      </c>
-      <c r="K13" s="327">
+      <c r="C13" s="303">
+        <v>0</v>
+      </c>
+      <c r="D13" s="303">
+        <v>0</v>
+      </c>
+      <c r="E13" s="303">
+        <v>0</v>
+      </c>
+      <c r="F13" s="303">
+        <v>0</v>
+      </c>
+      <c r="G13" s="303">
+        <v>0</v>
+      </c>
+      <c r="H13" s="303">
+        <v>0</v>
+      </c>
+      <c r="I13" s="303">
+        <v>0</v>
+      </c>
+      <c r="J13" s="303">
+        <v>0</v>
+      </c>
+      <c r="K13" s="303">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="28">
-      <c r="B14" s="329" t="s">
+      <c r="B14" s="305" t="s">
         <v>470</v>
       </c>
-      <c r="C14" s="330">
+      <c r="C14" s="306">
         <f>C12+C13</f>
         <v>-67622420.261543438</v>
       </c>
-      <c r="D14" s="330">
+      <c r="D14" s="306">
         <f t="shared" ref="D14:K14" si="2">D12+D13</f>
         <v>-90916477.425534099</v>
       </c>
-      <c r="E14" s="330">
+      <c r="E14" s="306">
         <f t="shared" si="2"/>
         <v>-92293679.242992446</v>
       </c>
-      <c r="F14" s="330">
+      <c r="F14" s="306">
         <f t="shared" si="2"/>
         <v>-94199591.416508391</v>
       </c>
-      <c r="G14" s="330">
+      <c r="G14" s="306">
         <f t="shared" si="2"/>
         <v>-95965347.046854109</v>
       </c>
-      <c r="H14" s="330">
+      <c r="H14" s="306">
         <f t="shared" si="2"/>
         <v>-97334998.60514766</v>
       </c>
-      <c r="I14" s="330">
+      <c r="I14" s="306">
         <f t="shared" si="2"/>
         <v>-99670887.35728626</v>
       </c>
-      <c r="J14" s="330">
+      <c r="J14" s="306">
         <f t="shared" si="2"/>
         <v>-101275069.63320865</v>
       </c>
-      <c r="K14" s="330">
+      <c r="K14" s="306">
         <f t="shared" si="2"/>
         <v>-102535865.03101693</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="328" t="s">
+      <c r="B15" s="304" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="331">
+      <c r="C15" s="307">
         <f>C14*Parametros!$C$199</f>
         <v>-4057345.2156926063</v>
       </c>
-      <c r="D15" s="331">
+      <c r="D15" s="307">
         <f>D14*Parametros!$C$199</f>
         <v>-5454988.6455320455</v>
       </c>
-      <c r="E15" s="331">
+      <c r="E15" s="307">
         <f>E14*Parametros!$C$199</f>
         <v>-5537620.7545795469</v>
       </c>
-      <c r="F15" s="331">
+      <c r="F15" s="307">
         <f>F14*Parametros!$C$199</f>
         <v>-5651975.4849905036</v>
       </c>
-      <c r="G15" s="331">
+      <c r="G15" s="307">
         <f>G14*Parametros!$C$199</f>
         <v>-5757920.8228112459</v>
       </c>
-      <c r="H15" s="331">
+      <c r="H15" s="307">
         <f>H14*Parametros!$C$199</f>
         <v>-5840099.9163088594</v>
       </c>
-      <c r="I15" s="331">
+      <c r="I15" s="307">
         <f>I14*Parametros!$C$199</f>
         <v>-5980253.2414371753</v>
       </c>
-      <c r="J15" s="331">
+      <c r="J15" s="307">
         <f>J14*Parametros!$C$199</f>
         <v>-6076504.177992519</v>
       </c>
-      <c r="K15" s="331">
+      <c r="K15" s="307">
         <f>K14*Parametros!$C$199</f>
         <v>-6152151.9018610157</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="328" t="s">
+      <c r="B16" s="304" t="s">
         <v>411</v>
       </c>
-      <c r="C16" s="331">
+      <c r="C16" s="307">
         <f>C14*Parametros!$C$200</f>
         <v>-2704896.8104617377</v>
       </c>
-      <c r="D16" s="331">
+      <c r="D16" s="307">
         <f>D14*Parametros!$C$200</f>
         <v>-3636659.0970213641</v>
       </c>
-      <c r="E16" s="331">
+      <c r="E16" s="307">
         <f>E14*Parametros!$C$200</f>
         <v>-3691747.1697196979</v>
       </c>
-      <c r="F16" s="331">
+      <c r="F16" s="307">
         <f>F14*Parametros!$C$200</f>
         <v>-3767983.6566603356</v>
       </c>
-      <c r="G16" s="331">
+      <c r="G16" s="307">
         <f>G14*Parametros!$C$200</f>
         <v>-3838613.8818741646</v>
       </c>
-      <c r="H16" s="331">
+      <c r="H16" s="307">
         <f>H14*Parametros!$C$200</f>
         <v>-3893399.9442059062</v>
       </c>
-      <c r="I16" s="331">
+      <c r="I16" s="307">
         <f>I14*Parametros!$C$200</f>
         <v>-3986835.4942914504</v>
       </c>
-      <c r="J16" s="331">
+      <c r="J16" s="307">
         <f>J14*Parametros!$C$200</f>
         <v>-4051002.7853283458</v>
       </c>
-      <c r="K16" s="331">
+      <c r="K16" s="307">
         <f>K14*Parametros!$C$200</f>
         <v>-4101434.6012406773</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="328" t="s">
+      <c r="B17" s="304" t="s">
         <v>415</v>
       </c>
-      <c r="C17" s="331">
+      <c r="C17" s="307">
         <f>C14*Parametros!$C$198</f>
         <v>-3381121.013077172</v>
       </c>
-      <c r="D17" s="331">
+      <c r="D17" s="307">
         <f>D14*Parametros!$C$198</f>
         <v>-4545823.8712767055</v>
       </c>
-      <c r="E17" s="331">
+      <c r="E17" s="307">
         <f>E14*Parametros!$C$198</f>
         <v>-4614683.9621496229</v>
       </c>
-      <c r="F17" s="331">
+      <c r="F17" s="307">
         <f>F14*Parametros!$C$198</f>
         <v>-4709979.5708254194</v>
       </c>
-      <c r="G17" s="331">
+      <c r="G17" s="307">
         <f>G14*Parametros!$C$198</f>
         <v>-4798267.3523427052</v>
       </c>
-      <c r="H17" s="331">
+      <c r="H17" s="307">
         <f>H14*Parametros!$C$198</f>
         <v>-4866749.9302573828</v>
       </c>
-      <c r="I17" s="331">
+      <c r="I17" s="307">
         <f>I14*Parametros!$C$198</f>
         <v>-4983544.3678643135</v>
       </c>
-      <c r="J17" s="331">
+      <c r="J17" s="307">
         <f>J14*Parametros!$C$198</f>
         <v>-5063753.4816604331</v>
       </c>
-      <c r="K17" s="331">
+      <c r="K17" s="307">
         <f>K14*Parametros!$C$198</f>
         <v>-5126793.2515508467</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="332" t="s">
+      <c r="B18" s="308" t="s">
         <v>471</v>
       </c>
-      <c r="C18" s="333">
+      <c r="C18" s="309">
         <f>C14-C15-C16-C17</f>
         <v>-57479057.222311921</v>
       </c>
-      <c r="D18" s="333">
+      <c r="D18" s="309">
         <f t="shared" ref="D18:K18" si="3">D14-D15-D16-D17</f>
         <v>-77279005.81170398</v>
       </c>
-      <c r="E18" s="333">
+      <c r="E18" s="309">
         <f t="shared" si="3"/>
         <v>-78449627.356543586</v>
       </c>
-      <c r="F18" s="333">
+      <c r="F18" s="309">
         <f t="shared" si="3"/>
         <v>-80069652.704032138</v>
       </c>
-      <c r="G18" s="333">
+      <c r="G18" s="309">
         <f t="shared" si="3"/>
         <v>-81570544.989825994</v>
       </c>
-      <c r="H18" s="333">
+      <c r="H18" s="309">
         <f t="shared" si="3"/>
         <v>-82734748.814375505</v>
       </c>
-      <c r="I18" s="333">
+      <c r="I18" s="309">
         <f t="shared" si="3"/>
         <v>-84720254.253693312</v>
       </c>
-      <c r="J18" s="333">
+      <c r="J18" s="309">
         <f t="shared" si="3"/>
         <v>-86083809.188227355</v>
       </c>
-      <c r="K18" s="333">
+      <c r="K18" s="309">
         <f t="shared" si="3"/>
         <v>-87155485.276364386</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="331">
+      <c r="C19" s="307">
         <f>'IGV e IR'!C30</f>
         <v>0</v>
       </c>
-      <c r="D19" s="331">
+      <c r="D19" s="307">
         <f>'IGV e IR'!D30</f>
         <v>0</v>
       </c>
-      <c r="E19" s="331">
+      <c r="E19" s="307">
         <f>'IGV e IR'!E30</f>
         <v>0</v>
       </c>
-      <c r="F19" s="331">
+      <c r="F19" s="307">
         <f>'IGV e IR'!F30</f>
         <v>0</v>
       </c>
-      <c r="G19" s="331">
+      <c r="G19" s="307">
         <f>'IGV e IR'!G30</f>
         <v>0</v>
       </c>
-      <c r="H19" s="331">
+      <c r="H19" s="307">
         <f>'IGV e IR'!H30</f>
         <v>0</v>
       </c>
-      <c r="I19" s="331">
+      <c r="I19" s="307">
         <f>'IGV e IR'!I30</f>
         <v>0</v>
       </c>
-      <c r="J19" s="331">
+      <c r="J19" s="307">
         <f>'IGV e IR'!J30</f>
         <v>0</v>
       </c>
-      <c r="K19" s="331">
+      <c r="K19" s="307">
         <f>'IGV e IR'!K30</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="329" t="s">
+      <c r="B20" s="305" t="s">
         <v>472</v>
       </c>
-      <c r="C20" s="334">
+      <c r="C20" s="310">
         <f>C18-C19</f>
         <v>-57479057.222311921</v>
       </c>
-      <c r="D20" s="334">
+      <c r="D20" s="310">
         <f t="shared" ref="D20:K20" si="4">D18-D19</f>
         <v>-77279005.81170398</v>
       </c>
-      <c r="E20" s="334">
+      <c r="E20" s="310">
         <f t="shared" si="4"/>
         <v>-78449627.356543586</v>
       </c>
-      <c r="F20" s="334">
+      <c r="F20" s="310">
         <f t="shared" si="4"/>
         <v>-80069652.704032138</v>
       </c>
-      <c r="G20" s="334">
+      <c r="G20" s="310">
         <f t="shared" si="4"/>
         <v>-81570544.989825994</v>
       </c>
-      <c r="H20" s="334">
+      <c r="H20" s="310">
         <f t="shared" si="4"/>
         <v>-82734748.814375505</v>
       </c>
-      <c r="I20" s="334">
+      <c r="I20" s="310">
         <f t="shared" si="4"/>
         <v>-84720254.253693312</v>
       </c>
-      <c r="J20" s="334">
+      <c r="J20" s="310">
         <f t="shared" si="4"/>
         <v>-86083809.188227355</v>
       </c>
-      <c r="K20" s="334">
+      <c r="K20" s="310">
         <f t="shared" si="4"/>
         <v>-87155485.276364386</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="328" t="s">
+      <c r="B21" s="304" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="335">
+      <c r="C21" s="311">
         <f>C33</f>
         <v>0</v>
       </c>
-      <c r="D21" s="335">
+      <c r="D21" s="311">
         <f t="shared" ref="D21:K21" si="5">D33</f>
         <v>0</v>
       </c>
-      <c r="E21" s="335">
+      <c r="E21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F21" s="335">
+      <c r="F21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="335">
+      <c r="G21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="335">
+      <c r="H21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21" s="335">
+      <c r="I21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="335">
+      <c r="J21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21" s="335">
+      <c r="K21" s="311">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="329" t="s">
+      <c r="B22" s="305" t="s">
         <v>473</v>
       </c>
-      <c r="C22" s="330">
+      <c r="C22" s="306">
         <f>C20-C21</f>
         <v>-57479057.222311921</v>
       </c>
-      <c r="D22" s="330">
+      <c r="D22" s="306">
         <f t="shared" ref="D22:K22" si="6">D20-D21</f>
         <v>-77279005.81170398</v>
       </c>
-      <c r="E22" s="330">
+      <c r="E22" s="306">
         <f t="shared" si="6"/>
         <v>-78449627.356543586</v>
       </c>
-      <c r="F22" s="330">
+      <c r="F22" s="306">
         <f t="shared" si="6"/>
         <v>-80069652.704032138</v>
       </c>
-      <c r="G22" s="330">
+      <c r="G22" s="306">
         <f t="shared" si="6"/>
         <v>-81570544.989825994</v>
       </c>
-      <c r="H22" s="330">
+      <c r="H22" s="306">
         <f t="shared" si="6"/>
         <v>-82734748.814375505</v>
       </c>
-      <c r="I22" s="330">
+      <c r="I22" s="306">
         <f t="shared" si="6"/>
         <v>-84720254.253693312</v>
       </c>
-      <c r="J22" s="330">
+      <c r="J22" s="306">
         <f t="shared" si="6"/>
         <v>-86083809.188227355</v>
       </c>
-      <c r="K22" s="330">
+      <c r="K22" s="306">
         <f t="shared" si="6"/>
         <v>-87155485.276364386</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="328" t="s">
+      <c r="B23" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="327">
+      <c r="C23" s="303">
         <f>IF(C$22&gt;0,C$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="327">
+      <c r="D23" s="303">
         <f>IF(D$22&gt;0,D$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="327">
+      <c r="E23" s="303">
         <f>IF(E$22&gt;0,E$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="327">
+      <c r="F23" s="303">
         <f>IF(F$22&gt;0,F$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="327">
+      <c r="G23" s="303">
         <f>IF(G$22&gt;0,G$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="327">
+      <c r="H23" s="303">
         <f>IF(H$22&gt;0,H$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="327">
+      <c r="I23" s="303">
         <f>IF(I$22&gt;0,I$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="327">
+      <c r="J23" s="303">
         <f>IF(J$22&gt;0,J$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="327">
+      <c r="K23" s="303">
         <f>IF(K$22&gt;0,K$22*Parametros!$C$201,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="304" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="327">
-        <v>0</v>
-      </c>
-      <c r="D24" s="327">
+      <c r="C24" s="303">
+        <v>0</v>
+      </c>
+      <c r="D24" s="303">
         <f>IF(D$22&gt;0,MIN(D22*Parametros!$C$202,D22-D23),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="327">
+      <c r="E24" s="303">
         <f>IF(E$22&gt;0,MIN(E22*Parametros!$C$202,E22-E23),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="327">
+      <c r="F24" s="303">
         <f>IF(F$22&gt;0,MIN(F22*Parametros!$C$202,F22-F23),0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="327">
+      <c r="G24" s="303">
         <f>IF(G$22&gt;0,MIN(G22*Parametros!$C$202,G22-G23),0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="327">
+      <c r="H24" s="303">
         <f>IF(H$22&gt;0,MIN(H22*Parametros!$C$202,H22-H23),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="327">
+      <c r="I24" s="303">
         <f>IF(I$22&gt;0,MIN(I22*Parametros!$C$202,I22-I23),0)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="327">
+      <c r="J24" s="303">
         <f>IF(J$22&gt;0,MIN(J22*Parametros!$C$202,J22-J23),0)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="327">
+      <c r="K24" s="303">
         <f>IF(K$22&gt;0,MIN(K22*Parametros!$C$202,K22-K23),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="305" t="s">
         <v>474</v>
       </c>
-      <c r="C25" s="330">
+      <c r="C25" s="306">
         <f t="shared" ref="C25:K25" si="7">C22-C23-C24</f>
         <v>-57479057.222311921</v>
       </c>
-      <c r="D25" s="330">
+      <c r="D25" s="306">
         <f t="shared" si="7"/>
         <v>-77279005.81170398</v>
       </c>
-      <c r="E25" s="330">
+      <c r="E25" s="306">
         <f t="shared" si="7"/>
         <v>-78449627.356543586</v>
       </c>
-      <c r="F25" s="330">
+      <c r="F25" s="306">
         <f t="shared" si="7"/>
         <v>-80069652.704032138</v>
       </c>
-      <c r="G25" s="330">
+      <c r="G25" s="306">
         <f t="shared" si="7"/>
         <v>-81570544.989825994</v>
       </c>
-      <c r="H25" s="330">
+      <c r="H25" s="306">
         <f t="shared" si="7"/>
         <v>-82734748.814375505</v>
       </c>
-      <c r="I25" s="330">
+      <c r="I25" s="306">
         <f t="shared" si="7"/>
         <v>-84720254.253693312</v>
       </c>
-      <c r="J25" s="330">
+      <c r="J25" s="306">
         <f t="shared" si="7"/>
         <v>-86083809.188227355</v>
       </c>
-      <c r="K25" s="330">
+      <c r="K25" s="306">
         <f t="shared" si="7"/>
         <v>-87155485.276364386</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="328" t="s">
+      <c r="B26" s="304" t="s">
         <v>261</v>
       </c>
       <c r="C26" s="273">
@@ -31790,83 +31790,83 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="28">
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="330">
+      <c r="C27" s="306">
         <f>C25+C26</f>
         <v>-52089057.222311921</v>
       </c>
-      <c r="D27" s="330">
+      <c r="D27" s="306">
         <f t="shared" ref="D27:K27" si="9">D25+D26</f>
         <v>-77279005.81170398</v>
       </c>
-      <c r="E27" s="330">
+      <c r="E27" s="306">
         <f t="shared" si="9"/>
         <v>-78449627.356543586</v>
       </c>
-      <c r="F27" s="330">
+      <c r="F27" s="306">
         <f t="shared" si="9"/>
         <v>-80069652.704032138</v>
       </c>
-      <c r="G27" s="330">
+      <c r="G27" s="306">
         <f t="shared" si="9"/>
         <v>-81570544.989825994</v>
       </c>
-      <c r="H27" s="330">
+      <c r="H27" s="306">
         <f t="shared" si="9"/>
         <v>-82734748.814375505</v>
       </c>
-      <c r="I27" s="330">
+      <c r="I27" s="306">
         <f t="shared" si="9"/>
         <v>-84720254.253693312</v>
       </c>
-      <c r="J27" s="330">
+      <c r="J27" s="306">
         <f t="shared" si="9"/>
         <v>-86083809.188227355</v>
       </c>
-      <c r="K27" s="330">
+      <c r="K27" s="306">
         <f t="shared" si="9"/>
         <v>-87155485.276364386</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="329" t="s">
+      <c r="B28" s="305" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="330">
+      <c r="C28" s="306">
         <f>C22</f>
         <v>-57479057.222311921</v>
       </c>
-      <c r="D28" s="330">
+      <c r="D28" s="306">
         <f>C28+D27</f>
         <v>-134758063.03401589</v>
       </c>
-      <c r="E28" s="330">
+      <c r="E28" s="306">
         <f>D28+E27</f>
         <v>-213207690.39055949</v>
       </c>
-      <c r="F28" s="330">
+      <c r="F28" s="306">
         <f t="shared" ref="F28:K28" si="10">E28+F27</f>
         <v>-293277343.09459162</v>
       </c>
-      <c r="G28" s="330">
+      <c r="G28" s="306">
         <f t="shared" si="10"/>
         <v>-374847888.08441758</v>
       </c>
-      <c r="H28" s="330">
+      <c r="H28" s="306">
         <f t="shared" si="10"/>
         <v>-457582636.8987931</v>
       </c>
-      <c r="I28" s="330">
+      <c r="I28" s="306">
         <f t="shared" si="10"/>
         <v>-542302891.15248644</v>
       </c>
-      <c r="J28" s="330">
+      <c r="J28" s="306">
         <f t="shared" si="10"/>
         <v>-628386700.34071374</v>
       </c>
-      <c r="K28" s="330">
+      <c r="K28" s="306">
         <f t="shared" si="10"/>
         <v>-715542185.61707807</v>
       </c>
@@ -31896,165 +31896,165 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="329" t="s">
+      <c r="B31" s="305" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="336">
+      <c r="C31" s="312">
         <f>'Balance general'!C49</f>
         <v>5390000</v>
       </c>
-      <c r="D31" s="337">
+      <c r="D31" s="313">
         <f>C31+C33-C34</f>
         <v>0</v>
       </c>
-      <c r="E31" s="337">
+      <c r="E31" s="313">
         <f t="shared" ref="E31:K31" si="11">D31+D33-D34</f>
         <v>0</v>
       </c>
-      <c r="F31" s="337">
+      <c r="F31" s="313">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G31" s="337">
+      <c r="G31" s="313">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H31" s="337">
+      <c r="H31" s="313">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I31" s="337">
+      <c r="I31" s="313">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J31" s="337">
+      <c r="J31" s="313">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K31" s="337">
+      <c r="K31" s="313">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="329" t="s">
+      <c r="B32" s="305" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="336">
+      <c r="C32" s="312">
         <f>IF(AND(C20&gt;0,C31&lt;Parametros!$C$203*'Balance general'!C48),EGP!C20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="336">
+      <c r="D32" s="312">
         <f>IF(AND(D20&gt;0,D31&lt;Parametros!$C$203*'Balance general'!D48),EGP!D20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="336">
+      <c r="E32" s="312">
         <f>IF(AND(E20&gt;0,E31&lt;Parametros!$C$203*'Balance general'!E48),EGP!E20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="336">
+      <c r="F32" s="312">
         <f>IF(AND(F20&gt;0,F31&lt;Parametros!$C$203*'Balance general'!F48),EGP!F20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="336">
+      <c r="G32" s="312">
         <f>IF(AND(G20&gt;0,G31&lt;Parametros!$C$203*'Balance general'!G48),EGP!G20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="336">
+      <c r="H32" s="312">
         <f>IF(AND(H20&gt;0,H31&lt;Parametros!$C$203*'Balance general'!H48),EGP!H20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="336">
+      <c r="I32" s="312">
         <f>IF(AND(I20&gt;0,I31&lt;Parametros!$C$203*'Balance general'!I48),EGP!I20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="336">
+      <c r="J32" s="312">
         <f>IF(AND(J20&gt;0,J31&lt;Parametros!$C$203*'Balance general'!J48),EGP!J20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="336">
+      <c r="K32" s="312">
         <f>IF(AND(K20&gt;0,K31&lt;Parametros!$C$203*'Balance general'!K48),EGP!K20*Parametros!$C$197,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="329" t="s">
+      <c r="B33" s="305" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="336">
+      <c r="C33" s="312">
         <f>IF(SUM(C31:C32)&gt;Parametros!$C$203*'Balance general'!C48,MAX(Parametros!$C$203*'Balance general'!C48-EGP!C31,0),EGP!C32)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="336">
+      <c r="D33" s="312">
         <f>IF(SUM(D31:D32)&gt;Parametros!$C$203*'Balance general'!D48,MAX(Parametros!$C$203*'Balance general'!D48-EGP!D31,0),EGP!D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="336">
+      <c r="E33" s="312">
         <f>IF(SUM(E31:E32)&gt;Parametros!$C$203*'Balance general'!E48,MAX(Parametros!$C$203*'Balance general'!E48-EGP!E31,0),EGP!E32)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="336">
+      <c r="F33" s="312">
         <f>IF(SUM(F31:F32)&gt;Parametros!$C$203*'Balance general'!F48,MAX(Parametros!$C$203*'Balance general'!F48-EGP!F31,0),EGP!F32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="336">
+      <c r="G33" s="312">
         <f>IF(SUM(G31:G32)&gt;Parametros!$C$203*'Balance general'!G48,MAX(Parametros!$C$203*'Balance general'!G48-EGP!G31,0),EGP!G32)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="336">
+      <c r="H33" s="312">
         <f>IF(SUM(H31:H32)&gt;Parametros!$C$203*'Balance general'!H48,MAX(Parametros!$C$203*'Balance general'!H48-EGP!H31,0),EGP!H32)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="336">
+      <c r="I33" s="312">
         <f>IF(SUM(I31:I32)&gt;Parametros!$C$203*'Balance general'!I48,MAX(Parametros!$C$203*'Balance general'!I48-EGP!I31,0),EGP!I32)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="336">
+      <c r="J33" s="312">
         <f>IF(SUM(J31:J32)&gt;Parametros!$C$203*'Balance general'!J48,MAX(Parametros!$C$203*'Balance general'!J48-EGP!J31,0),EGP!J32)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="336">
+      <c r="K33" s="312">
         <f>IF(SUM(K31:K32)&gt;Parametros!$C$203*'Balance general'!K48,MAX(Parametros!$C$203*'Balance general'!K48-EGP!K31,0),EGP!K32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="329" t="s">
+      <c r="B34" s="305" t="s">
         <v>267</v>
       </c>
-      <c r="C34" s="336">
+      <c r="C34" s="312">
         <f>IF(C25&lt;0,MIN(-C25,C31),0)</f>
         <v>5390000</v>
       </c>
-      <c r="D34" s="336">
+      <c r="D34" s="312">
         <f t="shared" ref="D34:K34" si="12">IF(D25&lt;0,MIN(-D25,D31),0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="336">
+      <c r="E34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F34" s="336">
+      <c r="F34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G34" s="336">
+      <c r="G34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H34" s="336">
+      <c r="H34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I34" s="336">
+      <c r="I34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J34" s="336">
+      <c r="J34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K34" s="336">
+      <c r="K34" s="312">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -32082,83 +32082,83 @@
       <c r="K36" s="110"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="329" t="s">
+      <c r="B37" s="305" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="335">
+      <c r="C37" s="311">
         <f>'Balance general'!C48</f>
         <v>27000000</v>
       </c>
-      <c r="D37" s="335">
+      <c r="D37" s="311">
         <f>C38</f>
         <v>27000000</v>
       </c>
-      <c r="E37" s="335">
+      <c r="E37" s="311">
         <f t="shared" ref="E37:K37" si="13">D38</f>
         <v>27000000</v>
       </c>
-      <c r="F37" s="335">
+      <c r="F37" s="311">
         <f t="shared" si="13"/>
         <v>27000000</v>
       </c>
-      <c r="G37" s="335">
+      <c r="G37" s="311">
         <f t="shared" si="13"/>
         <v>27000000</v>
       </c>
-      <c r="H37" s="335">
+      <c r="H37" s="311">
         <f t="shared" si="13"/>
         <v>27000000</v>
       </c>
-      <c r="I37" s="335">
+      <c r="I37" s="311">
         <f t="shared" si="13"/>
         <v>27000000</v>
       </c>
-      <c r="J37" s="335">
+      <c r="J37" s="311">
         <f t="shared" si="13"/>
         <v>27000000</v>
       </c>
-      <c r="K37" s="335">
+      <c r="K37" s="311">
         <f t="shared" si="13"/>
         <v>27000000</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="329" t="s">
+      <c r="B38" s="305" t="s">
         <v>269</v>
       </c>
-      <c r="C38" s="335">
+      <c r="C38" s="311">
         <f>C24+C37</f>
         <v>27000000</v>
       </c>
-      <c r="D38" s="335">
+      <c r="D38" s="311">
         <f t="shared" ref="D38:K38" si="14">D24+D37</f>
         <v>27000000</v>
       </c>
-      <c r="E38" s="335">
+      <c r="E38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
-      <c r="F38" s="335">
+      <c r="F38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
-      <c r="G38" s="335">
+      <c r="G38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
-      <c r="H38" s="335">
+      <c r="H38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
-      <c r="I38" s="335">
+      <c r="I38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
-      <c r="J38" s="335">
+      <c r="J38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
-      <c r="K38" s="335">
+      <c r="K38" s="311">
         <f t="shared" si="14"/>
         <v>27000000</v>
       </c>
@@ -32216,18 +32216,18 @@
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1">
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="314" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="315"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="88"/>
@@ -32342,18 +32342,18 @@
       <c r="K10" s="92"/>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1">
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="303"/>
-      <c r="D11" s="303"/>
-      <c r="E11" s="303"/>
-      <c r="F11" s="303"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="303"/>
-      <c r="I11" s="303"/>
-      <c r="J11" s="303"/>
-      <c r="K11" s="303"/>
+      <c r="C11" s="315"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="315"/>
+      <c r="G11" s="315"/>
+      <c r="H11" s="315"/>
+      <c r="I11" s="315"/>
+      <c r="J11" s="315"/>
+      <c r="K11" s="315"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="20"/>
@@ -32420,18 +32420,18 @@
       <c r="K18" s="88"/>
     </row>
     <row r="19" spans="2:11" ht="18">
-      <c r="B19" s="302" t="s">
+      <c r="B19" s="314" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="303"/>
-      <c r="D19" s="303"/>
-      <c r="E19" s="303"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
-      <c r="I19" s="303"/>
-      <c r="J19" s="303"/>
-      <c r="K19" s="303"/>
+      <c r="C19" s="315"/>
+      <c r="D19" s="315"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="315"/>
+      <c r="G19" s="315"/>
+      <c r="H19" s="315"/>
+      <c r="I19" s="315"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="315"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="20"/>
@@ -36427,7 +36427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -38048,12 +38048,12 @@
     </row>
     <row r="4" spans="2:17" ht="18">
       <c r="B4" s="28"/>
-      <c r="C4" s="312" t="s">
+      <c r="C4" s="324" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="314"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="326"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -38080,10 +38080,10 @@
     </row>
     <row r="6" spans="2:17" ht="18">
       <c r="B6" s="28"/>
-      <c r="C6" s="310" t="s">
+      <c r="C6" s="322" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="311"/>
+      <c r="D6" s="323"/>
       <c r="E6" s="155">
         <v>0.3</v>
       </c>
@@ -38100,10 +38100,10 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="10"/>
-      <c r="C7" s="310" t="s">
+      <c r="C7" s="322" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="311"/>
+      <c r="D7" s="323"/>
       <c r="E7" s="155">
         <v>0.2</v>
       </c>
@@ -38120,10 +38120,10 @@
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="10"/>
-      <c r="C8" s="310" t="s">
+      <c r="C8" s="322" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="311"/>
+      <c r="D8" s="323"/>
       <c r="E8" s="155">
         <v>0.3</v>
       </c>
@@ -38140,10 +38140,10 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="10"/>
-      <c r="C9" s="310" t="s">
+      <c r="C9" s="322" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="311"/>
+      <c r="D9" s="323"/>
       <c r="E9" s="155">
         <v>0.2</v>
       </c>
@@ -38196,11 +38196,11 @@
       <c r="B12" s="10"/>
       <c r="C12" s="69"/>
       <c r="D12" s="142"/>
-      <c r="J12" s="309" t="s">
+      <c r="J12" s="321" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -38242,7 +38242,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="10"/>
-      <c r="C14" s="306" t="s">
+      <c r="C14" s="318" t="s">
         <v>107</v>
       </c>
       <c r="D14" s="151" t="s">
@@ -38281,7 +38281,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="10"/>
-      <c r="C15" s="307"/>
+      <c r="C15" s="319"/>
       <c r="D15" s="151" t="s">
         <v>33</v>
       </c>
@@ -38318,7 +38318,7 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="10"/>
-      <c r="C16" s="307"/>
+      <c r="C16" s="319"/>
       <c r="D16" s="151" t="s">
         <v>34</v>
       </c>
@@ -38355,7 +38355,7 @@
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="10"/>
-      <c r="C17" s="307"/>
+      <c r="C17" s="319"/>
       <c r="D17" s="151" t="s">
         <v>35</v>
       </c>
@@ -38388,7 +38388,7 @@
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="10"/>
-      <c r="C18" s="307"/>
+      <c r="C18" s="319"/>
       <c r="D18" s="151" t="s">
         <v>36</v>
       </c>
@@ -38419,7 +38419,7 @@
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="10"/>
-      <c r="C19" s="307"/>
+      <c r="C19" s="319"/>
       <c r="D19" s="151" t="s">
         <v>110</v>
       </c>
@@ -38445,7 +38445,7 @@
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="10"/>
-      <c r="C20" s="307"/>
+      <c r="C20" s="319"/>
       <c r="D20" s="151" t="s">
         <v>111</v>
       </c>
@@ -38482,7 +38482,7 @@
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="10"/>
-      <c r="C21" s="307"/>
+      <c r="C21" s="319"/>
       <c r="D21" s="151" t="s">
         <v>43</v>
       </c>
@@ -38515,7 +38515,7 @@
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="10"/>
-      <c r="C22" s="307"/>
+      <c r="C22" s="319"/>
       <c r="D22" s="151" t="s">
         <v>37</v>
       </c>
@@ -38539,7 +38539,7 @@
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="10"/>
-      <c r="C23" s="308"/>
+      <c r="C23" s="320"/>
       <c r="D23" s="151" t="s">
         <v>38</v>
       </c>
@@ -38576,7 +38576,7 @@
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1">
       <c r="B24" s="10"/>
-      <c r="C24" s="304" t="s">
+      <c r="C24" s="316" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="152" t="s">
@@ -38614,7 +38614,7 @@
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="10"/>
-      <c r="C25" s="304"/>
+      <c r="C25" s="316"/>
       <c r="D25" s="152" t="s">
         <v>21</v>
       </c>
@@ -38650,7 +38650,7 @@
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="10"/>
-      <c r="C26" s="305"/>
+      <c r="C26" s="317"/>
       <c r="D26" s="152" t="s">
         <v>22</v>
       </c>

--- a/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
+++ b/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13820" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
     <t>Administracion</t>
   </si>
   <si>
-    <t>pamcho4</t>
+    <t>pamcho3</t>
   </si>
 </sst>
 </file>
@@ -1817,14 +1817,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;S/.&quot;\ #,##0;[Red]&quot;S/.&quot;\ \-#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;S/.&quot;\ #,##0.00;[Red]&quot;S/.&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="170" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;S/.&quot;\ #,##0;[Red]&quot;S/.&quot;\ \-#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;S/.&quot;\ #,##0.00;[Red]&quot;S/.&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="171" formatCode="#,##0;#,##0"/>
   </numFmts>
   <fonts count="54" x14ac:knownFonts="1">
     <font>
@@ -2601,7 +2601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2669,7 +2669,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2933,7 +2933,7 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2970,7 +2970,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3020,10 +3020,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3077,7 +3077,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3085,32 +3085,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3190,7 +3190,7 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3318,7 +3318,7 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -3343,19 +3343,19 @@
     <xf numFmtId="1" fontId="6" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="9" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3391,10 +3391,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="51" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3429,7 +3429,7 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="53" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="53" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3452,18 +3452,18 @@
     <xf numFmtId="3" fontId="21" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="24" fillId="9" borderId="18" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3482,7 +3482,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="26" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3530,10 +3530,10 @@
     <xf numFmtId="3" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="12" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="18" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6557,39 +6557,39 @@
       </c>
       <c r="D32" s="258">
         <f>'Plan de producción'!D$39*Formulacion!$J25</f>
-        <v>461713.54166666663</v>
+        <v>446938.70833333331</v>
       </c>
       <c r="E32" s="258">
         <f>'Plan de producción'!E$39*Formulacion!$J25</f>
-        <v>466303.84895833331</v>
+        <v>451382.12579166662</v>
       </c>
       <c r="F32" s="258">
         <f>'Plan de producción'!F$39*Formulacion!$J25</f>
-        <v>468404.96195312485</v>
+        <v>453416.00317062484</v>
       </c>
       <c r="G32" s="258">
         <f>'Plan de producción'!G$39*Formulacion!$J25</f>
-        <v>473283.12883828121</v>
+        <v>458138.06871545617</v>
       </c>
       <c r="H32" s="258">
         <f>'Plan de producción'!H$39*Formulacion!$J25</f>
-        <v>478015.96012666391</v>
+        <v>462719.44940261065</v>
       </c>
       <c r="I32" s="258">
         <f>'Plan de producción'!I$39*Formulacion!$J25</f>
-        <v>483830.96714037302</v>
+        <v>468348.37619188108</v>
       </c>
       <c r="J32" s="258">
         <f>'Plan de producción'!J$39*Formulacion!$J25</f>
-        <v>488589.67316466582</v>
+        <v>472954.8036233965</v>
       </c>
       <c r="K32" s="258">
         <f>'Plan de producción'!K$39*Formulacion!$J25</f>
-        <v>494533.30813351797</v>
+        <v>478708.24227324541</v>
       </c>
       <c r="L32" s="258">
         <f>'Plan de producción'!L$39*Formulacion!$J25</f>
-        <v>499397.27673506818</v>
+        <v>483416.56387954595</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -6641,39 +6641,39 @@
       </c>
       <c r="D34" s="259">
         <f>SUM(D31:D33)</f>
-        <v>1278023.083333333</v>
+        <v>1263248.25</v>
       </c>
       <c r="E34" s="259">
         <f t="shared" ref="E34:L34" si="3">SUM(E31:E33)</f>
-        <v>1290729.0539166667</v>
+        <v>1275807.33075</v>
       </c>
       <c r="F34" s="259">
         <f t="shared" si="3"/>
-        <v>1296544.9346862496</v>
+        <v>1281555.9759037495</v>
       </c>
       <c r="G34" s="259">
         <f t="shared" si="3"/>
-        <v>1310047.7006243623</v>
+        <v>1294902.6405015374</v>
       </c>
       <c r="H34" s="259">
         <f t="shared" si="3"/>
-        <v>1323148.1776306056</v>
+        <v>1307851.6669065524</v>
       </c>
       <c r="I34" s="259">
         <f t="shared" si="3"/>
-        <v>1339244.1170445525</v>
+        <v>1323761.5260960606</v>
       </c>
       <c r="J34" s="259">
         <f t="shared" si="3"/>
-        <v>1352416.2153197951</v>
+        <v>1336781.3457785258</v>
       </c>
       <c r="K34" s="259">
         <f t="shared" si="3"/>
-        <v>1368868.1969135776</v>
+        <v>1353043.1310533052</v>
       </c>
       <c r="L34" s="259">
         <f t="shared" si="3"/>
-        <v>1382331.6620026687</v>
+        <v>1366350.9491471467</v>
       </c>
     </row>
     <row r="35" spans="2:12">
@@ -7216,39 +7216,39 @@
       </c>
       <c r="D55" s="258">
         <f t="shared" ref="D55:L56" si="7">IF(D32&gt;D10,D32-D10,0)</f>
-        <v>442353.54166666663</v>
+        <v>427578.70833333331</v>
       </c>
       <c r="E55" s="258">
         <f t="shared" si="7"/>
-        <v>446943.84895833331</v>
+        <v>432022.12579166662</v>
       </c>
       <c r="F55" s="258">
         <f t="shared" si="7"/>
-        <v>449044.96195312485</v>
+        <v>434056.00317062484</v>
       </c>
       <c r="G55" s="258">
         <f t="shared" si="7"/>
-        <v>453923.12883828121</v>
+        <v>438778.06871545617</v>
       </c>
       <c r="H55" s="258">
         <f t="shared" si="7"/>
-        <v>458655.96012666391</v>
+        <v>443359.44940261065</v>
       </c>
       <c r="I55" s="258">
         <f t="shared" si="7"/>
-        <v>464470.96714037302</v>
+        <v>448988.37619188108</v>
       </c>
       <c r="J55" s="258">
         <f t="shared" si="7"/>
-        <v>469229.67316466582</v>
+        <v>453594.8036233965</v>
       </c>
       <c r="K55" s="258">
         <f t="shared" si="7"/>
-        <v>475173.30813351797</v>
+        <v>459348.24227324541</v>
       </c>
       <c r="L55" s="258">
         <f t="shared" si="7"/>
-        <v>480037.27673506818</v>
+        <v>464056.56387954595</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -7300,39 +7300,39 @@
       </c>
       <c r="D57" s="259">
         <f>SUM(D54:D56)</f>
-        <v>1142503.083333333</v>
+        <v>1127728.25</v>
       </c>
       <c r="E57" s="259">
         <f t="shared" ref="E57:L57" si="8">SUM(E54:E56)</f>
-        <v>1155209.0539166667</v>
+        <v>1140287.33075</v>
       </c>
       <c r="F57" s="259">
         <f t="shared" si="8"/>
-        <v>1161024.9346862496</v>
+        <v>1146035.9759037495</v>
       </c>
       <c r="G57" s="259">
         <f t="shared" si="8"/>
-        <v>1174527.7006243623</v>
+        <v>1159382.6405015374</v>
       </c>
       <c r="H57" s="259">
         <f t="shared" si="8"/>
-        <v>1187628.1776306056</v>
+        <v>1172331.6669065524</v>
       </c>
       <c r="I57" s="259">
         <f t="shared" si="8"/>
-        <v>1203724.1170445525</v>
+        <v>1188241.5260960606</v>
       </c>
       <c r="J57" s="259">
         <f t="shared" si="8"/>
-        <v>1216896.2153197951</v>
+        <v>1201261.3457785258</v>
       </c>
       <c r="K57" s="259">
         <f t="shared" si="8"/>
-        <v>1233348.1969135776</v>
+        <v>1217523.1310533052</v>
       </c>
       <c r="L57" s="259">
         <f t="shared" si="8"/>
-        <v>1246811.6620026687</v>
+        <v>1230830.9491471467</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -7872,39 +7872,39 @@
       </c>
       <c r="D78" s="258">
         <f>D55*Parametros!$E35</f>
-        <v>4423535.416666666</v>
+        <v>4275787.083333333</v>
       </c>
       <c r="E78" s="258">
         <f>E55*Parametros!$E35</f>
-        <v>4469438.489583333</v>
+        <v>4320221.2579166666</v>
       </c>
       <c r="F78" s="258">
         <f>F55*Parametros!$E35</f>
-        <v>4490449.6195312487</v>
+        <v>4340560.0317062484</v>
       </c>
       <c r="G78" s="258">
         <f>G55*Parametros!$E35</f>
-        <v>4539231.2883828124</v>
+        <v>4387780.6871545613</v>
       </c>
       <c r="H78" s="258">
         <f>H55*Parametros!$E35</f>
-        <v>4586559.6012666393</v>
+        <v>4433594.4940261068</v>
       </c>
       <c r="I78" s="258">
         <f>I55*Parametros!$E35</f>
-        <v>4644709.6714037303</v>
+        <v>4489883.7619188111</v>
       </c>
       <c r="J78" s="258">
         <f>J55*Parametros!$E35</f>
-        <v>4692296.7316466579</v>
+        <v>4535948.0362339653</v>
       </c>
       <c r="K78" s="258">
         <f>K55*Parametros!$E35</f>
-        <v>4751733.0813351795</v>
+        <v>4593482.4227324538</v>
       </c>
       <c r="L78" s="258">
         <f>L55*Parametros!$E35</f>
-        <v>4800372.7673506821</v>
+        <v>4640565.6387954596</v>
       </c>
     </row>
     <row r="79" spans="2:12">
@@ -7956,39 +7956,39 @@
       </c>
       <c r="D80" s="259">
         <f>SUM(D77:D79)</f>
-        <v>10321247.75</v>
+        <v>10173499.416666664</v>
       </c>
       <c r="E80" s="259">
         <f t="shared" ref="E80:L80" si="15">SUM(E77:E79)</f>
-        <v>10435601.48525</v>
+        <v>10286384.253583333</v>
       </c>
       <c r="F80" s="259">
         <f t="shared" si="15"/>
-        <v>10487944.412176248</v>
+        <v>10338054.824351247</v>
       </c>
       <c r="G80" s="259">
         <f t="shared" si="15"/>
-        <v>10609469.30561926</v>
+        <v>10458018.70439101</v>
       </c>
       <c r="H80" s="259">
         <f t="shared" si="15"/>
-        <v>10727373.598675452</v>
+        <v>10574408.491434921</v>
       </c>
       <c r="I80" s="259">
         <f t="shared" si="15"/>
-        <v>10872237.053400973</v>
+        <v>10717411.143916054</v>
       </c>
       <c r="J80" s="259">
         <f t="shared" si="15"/>
-        <v>10990785.937878154</v>
+        <v>10834437.242465463</v>
       </c>
       <c r="K80" s="259">
         <f t="shared" si="15"/>
-        <v>11138853.772222199</v>
+        <v>10980603.113619473</v>
       </c>
       <c r="L80" s="259">
         <f t="shared" si="15"/>
-        <v>11260024.958024018</v>
+        <v>11100217.829468796</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -9184,39 +9184,39 @@
       </c>
       <c r="D124" s="258">
         <f t="shared" ref="D124:L125" si="22">D78+D101</f>
-        <v>4707062.6166666662</v>
+        <v>4559314.2833333332</v>
       </c>
       <c r="E124" s="258">
         <f t="shared" si="22"/>
-        <v>4755800.9615833331</v>
+        <v>4606583.7299166666</v>
       </c>
       <c r="F124" s="258">
         <f t="shared" si="22"/>
-        <v>4779675.7162512485</v>
+        <v>4629786.1284262482</v>
       </c>
       <c r="G124" s="258">
         <f t="shared" si="22"/>
-        <v>4834241.9070372125</v>
+        <v>4682791.3058089614</v>
       </c>
       <c r="H124" s="258">
         <f t="shared" si="22"/>
-        <v>4885995.3792008553</v>
+        <v>4733030.2719603227</v>
       </c>
       <c r="I124" s="258">
         <f t="shared" si="22"/>
-        <v>4947139.8071172889</v>
+        <v>4792313.8976323698</v>
       </c>
       <c r="J124" s="258">
         <f t="shared" si="22"/>
-        <v>5003799.771431623</v>
+        <v>4847451.0760189304</v>
       </c>
       <c r="K124" s="258">
         <f t="shared" si="22"/>
-        <v>5066351.1515179938</v>
+        <v>4908100.4929152681</v>
       </c>
       <c r="L124" s="258">
         <f t="shared" si="22"/>
-        <v>5116563.9278844111</v>
+        <v>4956756.7993291887</v>
       </c>
     </row>
     <row r="125" spans="2:12">
@@ -9268,39 +9268,39 @@
       </c>
       <c r="D126" s="259">
         <f>SUM(D123:D125)</f>
-        <v>12050763.669999998</v>
+        <v>11903015.336666666</v>
       </c>
       <c r="E126" s="259">
         <f t="shared" ref="E126:L126" si="23">SUM(E123:E125)</f>
-        <v>12182412.564449999</v>
+        <v>12033195.332783334</v>
       </c>
       <c r="F126" s="259">
         <f t="shared" si="23"/>
-        <v>12252223.602168247</v>
+        <v>12102334.014343247</v>
       </c>
       <c r="G126" s="259">
         <f t="shared" si="23"/>
-        <v>12409034.079411101</v>
+        <v>12257583.47818285</v>
       </c>
       <c r="H126" s="259">
         <f t="shared" si="23"/>
-        <v>12553931.844074167</v>
+        <v>12400966.736833636</v>
       </c>
       <c r="I126" s="259">
         <f t="shared" si="23"/>
-        <v>12717060.881253678</v>
+        <v>12562234.971768759</v>
       </c>
       <c r="J126" s="259">
         <f t="shared" si="23"/>
-        <v>12890954.48056644</v>
+        <v>12734605.785153748</v>
       </c>
       <c r="K126" s="259">
         <f t="shared" si="23"/>
-        <v>13058024.000337368</v>
+        <v>12899773.341734642</v>
       </c>
       <c r="L126" s="259">
         <f t="shared" si="23"/>
-        <v>13188791.037279762</v>
+        <v>13028983.908724539</v>
       </c>
     </row>
     <row r="127" spans="2:12">
@@ -14298,39 +14298,39 @@
       </c>
       <c r="C8" s="280">
         <f>MOD!D124+MOD!D130+MOD!D137</f>
-        <v>12839315.627777774</v>
+        <v>12691567.294444442</v>
       </c>
       <c r="D8" s="280">
         <f>MOD!E124+MOD!E130+MOD!E137</f>
-        <v>12979003.300027775</v>
+        <v>12829786.068361109</v>
       </c>
       <c r="E8" s="280">
         <f>MOD!F124+MOD!F130+MOD!F137</f>
-        <v>13099491.172246803</v>
+        <v>12949601.584421802</v>
       </c>
       <c r="F8" s="280">
         <f>MOD!G124+MOD!G130+MOD!G137</f>
-        <v>13259691.557365038</v>
+        <v>13108240.956136789</v>
       </c>
       <c r="G8" s="280">
         <f>MOD!H124+MOD!H130+MOD!H137</f>
-        <v>13414427.177046496</v>
+        <v>13261462.069805965</v>
       </c>
       <c r="H8" s="280">
         <f>MOD!I124+MOD!I130+MOD!I137</f>
-        <v>13588588.761069626</v>
+        <v>13433762.851584706</v>
       </c>
       <c r="I8" s="280">
         <f>MOD!J124+MOD!J130+MOD!J137</f>
-        <v>13751026.65461782</v>
+        <v>13594677.959205128</v>
       </c>
       <c r="J8" s="280">
         <f>MOD!K124+MOD!K130+MOD!K137</f>
-        <v>13912594.88799095</v>
+        <v>13754344.229388224</v>
       </c>
       <c r="K8" s="280">
         <f>MOD!L124+MOD!L130+MOD!L137</f>
-        <v>14055621.349901713</v>
+        <v>13895814.22134649</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -14380,39 +14380,39 @@
       </c>
       <c r="C10" s="282">
         <f t="shared" ref="C10:K10" si="0">SUM(C7:C9)</f>
-        <v>31766360.371111102</v>
+        <v>31618612.037777774</v>
       </c>
       <c r="D10" s="282">
         <f t="shared" si="0"/>
-        <v>32131630.580072217</v>
+        <v>31982413.348405551</v>
       </c>
       <c r="E10" s="282">
         <f t="shared" si="0"/>
-        <v>32447683.290585577</v>
+        <v>32297793.702760577</v>
       </c>
       <c r="F10" s="282">
         <f t="shared" si="0"/>
-        <v>32893650.652296402</v>
+        <v>32742200.051068157</v>
       </c>
       <c r="G10" s="282">
         <f t="shared" si="0"/>
-        <v>33312483.335557908</v>
+        <v>33159518.228317373</v>
       </c>
       <c r="H10" s="282">
         <f t="shared" si="0"/>
-        <v>33765198.893052354</v>
+        <v>33610372.983567446</v>
       </c>
       <c r="I10" s="282">
         <f t="shared" si="0"/>
-        <v>34255277.655017942</v>
+        <v>34098928.959605254</v>
       </c>
       <c r="J10" s="282">
         <f t="shared" si="0"/>
-        <v>34676524.828409061</v>
+        <v>34518274.169806346</v>
       </c>
       <c r="K10" s="282">
         <f t="shared" si="0"/>
-        <v>35035932.10673137</v>
+        <v>34876124.978176147</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="18">
@@ -14714,39 +14714,39 @@
       </c>
       <c r="C22" s="282">
         <f>C10+C20</f>
-        <v>50570540.371111102</v>
+        <v>50422792.037777774</v>
       </c>
       <c r="D22" s="282">
         <f t="shared" ref="D22:K22" si="2">D10+D20</f>
-        <v>51123852.380072221</v>
+        <v>50974635.148405552</v>
       </c>
       <c r="E22" s="282">
         <f t="shared" si="2"/>
-        <v>51629827.308585577</v>
+        <v>51479937.720760576</v>
       </c>
       <c r="F22" s="282">
         <f t="shared" si="2"/>
-        <v>52459437.550656408</v>
+        <v>52307986.949428156</v>
       </c>
       <c r="G22" s="282">
         <f t="shared" si="2"/>
-        <v>53171757.037393302</v>
+        <v>53018791.930152774</v>
       </c>
       <c r="H22" s="282">
         <f t="shared" si="2"/>
-        <v>53823065.331906103</v>
+        <v>53668239.422421195</v>
       </c>
       <c r="I22" s="282">
         <f t="shared" si="2"/>
-        <v>54914880.08703731</v>
+        <v>54758531.391624615</v>
       </c>
       <c r="J22" s="282">
         <f t="shared" si="2"/>
-        <v>55542723.284748614</v>
+        <v>55384472.626145899</v>
       </c>
       <c r="K22" s="282">
         <f t="shared" si="2"/>
-        <v>56006461.555352621</v>
+        <v>55846654.426797397</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18">
@@ -14915,39 +14915,39 @@
       </c>
       <c r="C31" s="284">
         <f>C22</f>
-        <v>50570540.371111102</v>
+        <v>50422792.037777774</v>
       </c>
       <c r="D31" s="284">
         <f t="shared" ref="D31:K31" si="3">D22</f>
-        <v>51123852.380072221</v>
+        <v>50974635.148405552</v>
       </c>
       <c r="E31" s="284">
         <f t="shared" si="3"/>
-        <v>51629827.308585577</v>
+        <v>51479937.720760576</v>
       </c>
       <c r="F31" s="284">
         <f t="shared" si="3"/>
-        <v>52459437.550656408</v>
+        <v>52307986.949428156</v>
       </c>
       <c r="G31" s="284">
         <f t="shared" si="3"/>
-        <v>53171757.037393302</v>
+        <v>53018791.930152774</v>
       </c>
       <c r="H31" s="284">
         <f t="shared" si="3"/>
-        <v>53823065.331906103</v>
+        <v>53668239.422421195</v>
       </c>
       <c r="I31" s="284">
         <f t="shared" si="3"/>
-        <v>54914880.08703731</v>
+        <v>54758531.391624615</v>
       </c>
       <c r="J31" s="284">
         <f t="shared" si="3"/>
-        <v>55542723.284748614</v>
+        <v>55384472.626145899</v>
       </c>
       <c r="K31" s="284">
         <f t="shared" si="3"/>
-        <v>56006461.555352621</v>
+        <v>55846654.426797397</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -15039,39 +15039,39 @@
       </c>
       <c r="C34" s="285">
         <f>SUM(C28:C33)</f>
-        <v>53415770.971111104</v>
+        <v>53268022.637777776</v>
       </c>
       <c r="D34" s="285">
         <f t="shared" ref="D34:K34" si="4">SUM(D28:D33)</f>
-        <v>53997535.286072217</v>
+        <v>53848318.054405548</v>
       </c>
       <c r="E34" s="285">
         <f t="shared" si="4"/>
-        <v>54532247.043645583</v>
+        <v>54382357.455820583</v>
       </c>
       <c r="F34" s="285">
         <f t="shared" si="4"/>
-        <v>55390881.483067006</v>
+        <v>55239430.881838754</v>
       </c>
       <c r="G34" s="285">
         <f t="shared" si="4"/>
-        <v>56161829.848452114</v>
+        <v>56008864.741211586</v>
       </c>
       <c r="H34" s="285">
         <f t="shared" si="4"/>
-        <v>56857989.235130802</v>
+        <v>56703163.325645894</v>
       </c>
       <c r="I34" s="285">
         <f t="shared" si="4"/>
-        <v>57980153.229294248</v>
+        <v>57823804.533881553</v>
       </c>
       <c r="J34" s="285">
         <f t="shared" si="4"/>
-        <v>58699954.621273264</v>
+        <v>58541703.96267055</v>
       </c>
       <c r="K34" s="285">
         <f t="shared" si="4"/>
-        <v>59195265.205242515</v>
+        <v>59035458.076687291</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="18">
@@ -15874,39 +15874,39 @@
       </c>
       <c r="D19" s="178">
         <f>MOD!D124+MOD!D124</f>
-        <v>9414125.2333333325</v>
+        <v>9118628.5666666664</v>
       </c>
       <c r="E19" s="178">
         <f>MOD!E124+MOD!E124</f>
-        <v>9511601.9231666662</v>
+        <v>9213167.4598333333</v>
       </c>
       <c r="F19" s="178">
         <f>MOD!F124+MOD!F124</f>
-        <v>9559351.432502497</v>
+        <v>9259572.2568524964</v>
       </c>
       <c r="G19" s="178">
         <f>MOD!G124+MOD!G124</f>
-        <v>9668483.814074425</v>
+        <v>9365582.6116179228</v>
       </c>
       <c r="H19" s="178">
         <f>MOD!H124+MOD!H124</f>
-        <v>9771990.7584017105</v>
+        <v>9466060.5439206455</v>
       </c>
       <c r="I19" s="178">
         <f>MOD!I124+MOD!I124</f>
-        <v>9894279.6142345779</v>
+        <v>9584627.7952647395</v>
       </c>
       <c r="J19" s="178">
         <f>MOD!J124+MOD!J124</f>
-        <v>10007599.542863246</v>
+        <v>9694902.1520378608</v>
       </c>
       <c r="K19" s="178">
         <f>MOD!K124+MOD!K124</f>
-        <v>10132702.303035988</v>
+        <v>9816200.9858305361</v>
       </c>
       <c r="L19" s="178">
         <f>MOD!L124+MOD!L124</f>
-        <v>10233127.855768822</v>
+        <v>9913513.5986583773</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -15958,39 +15958,39 @@
       </c>
       <c r="D21" s="179">
         <f t="shared" ref="D21:L21" si="0">SUM(D18:D20)+SUM(D7:D16)</f>
-        <v>58656663.431399323</v>
+        <v>58361166.764732659</v>
       </c>
       <c r="E21" s="179">
         <f t="shared" si="0"/>
-        <v>59364334.425021544</v>
+        <v>59065899.961688213</v>
       </c>
       <c r="F21" s="179">
         <f t="shared" si="0"/>
-        <v>59817289.865180992</v>
+        <v>59517510.689530991</v>
       </c>
       <c r="G21" s="179">
         <f t="shared" si="0"/>
-        <v>60787403.593181767</v>
+        <v>60484502.39072527</v>
       </c>
       <c r="H21" s="179">
         <f t="shared" si="0"/>
-        <v>61766362.667082757</v>
+        <v>61460432.452601694</v>
       </c>
       <c r="I21" s="179">
         <f t="shared" si="0"/>
-        <v>62994482.097622395</v>
+        <v>62684830.278652556</v>
       </c>
       <c r="J21" s="179">
         <f t="shared" si="0"/>
-        <v>64037259.832989395</v>
+        <v>63724562.442164004</v>
       </c>
       <c r="K21" s="179">
         <f t="shared" si="0"/>
-        <v>65161875.464404106</v>
+        <v>64845374.147198662</v>
       </c>
       <c r="L21" s="179">
         <f t="shared" si="0"/>
-        <v>66137125.190486766</v>
+        <v>65817510.93337632</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -16229,39 +16229,39 @@
       </c>
       <c r="D28" s="180">
         <f t="shared" ref="D28:L28" si="2">D21+D26</f>
-        <v>66656788.90664085</v>
+        <v>66361292.239974186</v>
       </c>
       <c r="E28" s="180">
         <f t="shared" si="2"/>
-        <v>67435231.853788748</v>
+        <v>67136797.39045541</v>
       </c>
       <c r="F28" s="180">
         <f t="shared" si="2"/>
-        <v>67930197.520465553</v>
+        <v>67630418.344815552</v>
       </c>
       <c r="G28" s="180">
         <f t="shared" si="2"/>
-        <v>69002514.388279989</v>
+        <v>68699613.185823485</v>
       </c>
       <c r="H28" s="180">
         <f t="shared" si="2"/>
-        <v>70089894.046119869</v>
+        <v>69783963.831638813</v>
       </c>
       <c r="I28" s="180">
         <f t="shared" si="2"/>
-        <v>71388264.393556595</v>
+        <v>71078612.574586749</v>
       </c>
       <c r="J28" s="180">
         <f t="shared" si="2"/>
-        <v>72547222.685428545</v>
+        <v>72234525.294603154</v>
       </c>
       <c r="K28" s="180">
         <f t="shared" si="2"/>
-        <v>73760056.806756452</v>
+        <v>73443555.489551008</v>
       </c>
       <c r="L28" s="180">
         <f t="shared" si="2"/>
-        <v>74774058.594936132</v>
+        <v>74454444.337825686</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="31" thickBot="1">
@@ -16326,39 +16326,39 @@
       </c>
       <c r="D31" s="182">
         <f>D28/D29</f>
-        <v>90.230173705252199</v>
+        <v>89.830173705252207</v>
       </c>
       <c r="E31" s="182">
         <f t="shared" ref="E31:L31" si="3">E28/E29</f>
-        <v>90.385314216833805</v>
+        <v>89.9853142168338</v>
       </c>
       <c r="F31" s="182">
         <f t="shared" si="3"/>
-        <v>90.640315323004089</v>
+        <v>90.240315323004083</v>
       </c>
       <c r="G31" s="182">
         <f t="shared" si="3"/>
-        <v>91.122139930348453</v>
+        <v>90.722139930348447</v>
       </c>
       <c r="H31" s="182">
         <f t="shared" si="3"/>
-        <v>91.64167607963806</v>
+        <v>91.241676079638069</v>
       </c>
       <c r="I31" s="182">
         <f t="shared" si="3"/>
-        <v>92.217464933425859</v>
+        <v>91.817464933425853</v>
       </c>
       <c r="J31" s="182">
         <f t="shared" si="3"/>
-        <v>92.801826704003119</v>
+        <v>92.401826704003113</v>
       </c>
       <c r="K31" s="182">
         <f t="shared" si="3"/>
-        <v>93.219273092473543</v>
+        <v>92.819273092473551</v>
       </c>
       <c r="L31" s="182">
         <f t="shared" si="3"/>
-        <v>93.580379387265879</v>
+        <v>93.180379387265873</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -24073,35 +24073,35 @@
       </c>
       <c r="E5" s="42">
         <f>D8</f>
-        <v>5588983.762049295</v>
+        <v>5566253.249228783</v>
       </c>
       <c r="F5" s="42">
         <f t="shared" ref="F5:L5" si="0">E8</f>
-        <v>5617247.3550644666</v>
+        <v>5592542.3568987846</v>
       </c>
       <c r="G5" s="42">
         <f t="shared" si="0"/>
-        <v>5657495.7596561462</v>
+        <v>5632535.4385934025</v>
       </c>
       <c r="H5" s="42">
         <f t="shared" si="0"/>
-        <v>5743077.7036873996</v>
+        <v>5717857.5864935964</v>
       </c>
       <c r="I5" s="42">
         <f t="shared" si="0"/>
-        <v>5833305.5192159414</v>
+        <v>5807832.4167794138</v>
       </c>
       <c r="J5" s="42">
         <f t="shared" si="0"/>
-        <v>5940120.7625209689</v>
+        <v>5914341.9224127829</v>
       </c>
       <c r="K5" s="42">
         <f t="shared" si="0"/>
-        <v>6037487.9575345814</v>
+        <v>6011451.3243858516</v>
       </c>
       <c r="L5" s="42">
         <f t="shared" si="0"/>
-        <v>6138272.674176231</v>
+        <v>6111923.601072073</v>
       </c>
       <c r="M5" s="37"/>
     </row>
@@ -24112,39 +24112,39 @@
       </c>
       <c r="D6" s="42">
         <f>'Costo unitario de produccion'!D28</f>
-        <v>66656788.90664085</v>
+        <v>66361292.239974186</v>
       </c>
       <c r="E6" s="42">
         <f>'Costo unitario de produccion'!E28</f>
-        <v>67435231.853788748</v>
+        <v>67136797.39045541</v>
       </c>
       <c r="F6" s="42">
         <f>'Costo unitario de produccion'!F28</f>
-        <v>67930197.520465553</v>
+        <v>67630418.344815552</v>
       </c>
       <c r="G6" s="42">
         <f>'Costo unitario de produccion'!G28</f>
-        <v>69002514.388279989</v>
+        <v>68699613.185823485</v>
       </c>
       <c r="H6" s="42">
         <f>'Costo unitario de produccion'!H28</f>
-        <v>70089894.046119869</v>
+        <v>69783963.831638813</v>
       </c>
       <c r="I6" s="42">
         <f>'Costo unitario de produccion'!I28</f>
-        <v>71388264.393556595</v>
+        <v>71078612.574586749</v>
       </c>
       <c r="J6" s="42">
         <f>'Costo unitario de produccion'!J28</f>
-        <v>72547222.685428545</v>
+        <v>72234525.294603154</v>
       </c>
       <c r="K6" s="42">
         <f>'Costo unitario de produccion'!K28</f>
-        <v>73760056.806756452</v>
+        <v>73443555.489551008</v>
       </c>
       <c r="L6" s="42">
         <f>'Costo unitario de produccion'!L28</f>
-        <v>74774058.594936132</v>
+        <v>74454444.337825686</v>
       </c>
       <c r="M6" s="37"/>
     </row>
@@ -24155,39 +24155,39 @@
       </c>
       <c r="D7" s="42">
         <f>'Plan de producción'!D9*D10</f>
-        <v>67067805.144591562</v>
+        <v>66795038.990745403</v>
       </c>
       <c r="E7" s="42">
         <f>'Plan de producción'!E9*E10</f>
-        <v>67406968.260773584</v>
+        <v>67110508.282785416</v>
       </c>
       <c r="F7" s="42">
         <f>'Plan de producción'!F9*F10</f>
-        <v>67889949.115873873</v>
+        <v>67590425.263120934</v>
       </c>
       <c r="G7" s="42">
         <f>'Plan de producción'!G9*G10</f>
-        <v>68916932.444248736</v>
+        <v>68614291.037923291</v>
       </c>
       <c r="H7" s="42">
         <f>'Plan de producción'!H9*H10</f>
-        <v>69999666.230591327</v>
+        <v>69693989.001352996</v>
       </c>
       <c r="I7" s="42">
         <f>'Plan de producción'!I9*I10</f>
-        <v>71281449.150251567</v>
+        <v>70972103.06895338</v>
       </c>
       <c r="J7" s="42">
         <f>'Plan de producción'!J9*J10</f>
-        <v>72449855.490414932</v>
+        <v>72137415.892630085</v>
       </c>
       <c r="K7" s="42">
         <f>'Plan de producción'!K9*K10</f>
-        <v>73659272.090114802</v>
+        <v>73343083.212864786</v>
       </c>
       <c r="L7" s="42">
         <f>'Plan de producción'!L9*L10</f>
-        <v>74688305.786872953</v>
+        <v>74368955.020521015</v>
       </c>
       <c r="M7" s="37"/>
     </row>
@@ -24198,39 +24198,39 @@
       </c>
       <c r="D8" s="42">
         <f>D5+D6-D7</f>
-        <v>5588983.762049295</v>
+        <v>5566253.249228783</v>
       </c>
       <c r="E8" s="42">
         <f t="shared" ref="E8:L8" si="1">E5+E6-E7</f>
-        <v>5617247.3550644666</v>
+        <v>5592542.3568987846</v>
       </c>
       <c r="F8" s="42">
         <f t="shared" si="1"/>
-        <v>5657495.7596561462</v>
+        <v>5632535.4385934025</v>
       </c>
       <c r="G8" s="42">
         <f t="shared" si="1"/>
-        <v>5743077.7036873996</v>
+        <v>5717857.5864935964</v>
       </c>
       <c r="H8" s="42">
         <f t="shared" si="1"/>
-        <v>5833305.5192159414</v>
+        <v>5807832.4167794138</v>
       </c>
       <c r="I8" s="42">
         <f t="shared" si="1"/>
-        <v>5940120.7625209689</v>
+        <v>5914341.9224127829</v>
       </c>
       <c r="J8" s="42">
         <f t="shared" si="1"/>
-        <v>6037487.9575345814</v>
+        <v>6011451.3243858516</v>
       </c>
       <c r="K8" s="42">
         <f t="shared" si="1"/>
-        <v>6138272.674176231</v>
+        <v>6111923.601072073</v>
       </c>
       <c r="L8" s="42">
         <f t="shared" si="1"/>
-        <v>6224025.4822394103</v>
+        <v>6197412.9183767438</v>
       </c>
       <c r="M8" s="37"/>
     </row>
@@ -24255,39 +24255,39 @@
       </c>
       <c r="D10" s="185">
         <f>SUM(D5:D6)/SUM('Plan de producción'!D7:D8)</f>
-        <v>90.964065027250186</v>
+        <v>90.594112289089111</v>
       </c>
       <c r="E10" s="185">
         <f>SUM(E5:E6)/SUM('Plan de producción'!E7:E8)</f>
-        <v>90.429349125942565</v>
+        <v>90.03163530579792</v>
       </c>
       <c r="F10" s="185">
         <f>SUM(F5:F6)/SUM('Plan de producción'!F7:F8)</f>
-        <v>90.624167891158578</v>
+        <v>90.224342876222138</v>
       </c>
       <c r="G10" s="185">
         <f>SUM(G5:G6)/SUM('Plan de producción'!G7:G8)</f>
-        <v>91.084213651659198</v>
+        <v>90.684226978777517</v>
       </c>
       <c r="H10" s="185">
         <f>SUM(H5:H6)/SUM('Plan de producción'!H7:H8)</f>
-        <v>91.599218925945848</v>
+        <v>91.199219940958656</v>
       </c>
       <c r="I10" s="185">
         <f>SUM(I5:I6)/SUM('Plan de producción'!I7:I8)</f>
-        <v>92.170471469798628</v>
+        <v>91.770471546950702</v>
       </c>
       <c r="J10" s="185">
         <f>SUM(J5:J6)/SUM('Plan de producción'!J7:J8)</f>
-        <v>92.753741766135306</v>
+        <v>92.353741772011304</v>
       </c>
       <c r="K10" s="185">
         <f>SUM(K5:K6)/SUM('Plan de producción'!K7:K8)</f>
-        <v>93.183887616163247</v>
+        <v>92.783887616609903</v>
       </c>
       <c r="L10" s="185">
         <f>SUM(L5:L6)/SUM('Plan de producción'!L7:L8)</f>
-        <v>93.550181994188748</v>
+        <v>93.150181994222777</v>
       </c>
       <c r="M10" s="37"/>
     </row>
@@ -24979,39 +24979,39 @@
       </c>
       <c r="D34" s="47">
         <f>D7</f>
-        <v>67067805.144591562</v>
+        <v>66795038.990745403</v>
       </c>
       <c r="E34" s="47">
         <f t="shared" ref="E34:L34" si="6">E7</f>
-        <v>67406968.260773584</v>
+        <v>67110508.282785416</v>
       </c>
       <c r="F34" s="47">
         <f t="shared" si="6"/>
-        <v>67889949.115873873</v>
+        <v>67590425.263120934</v>
       </c>
       <c r="G34" s="47">
         <f t="shared" si="6"/>
-        <v>68916932.444248736</v>
+        <v>68614291.037923291</v>
       </c>
       <c r="H34" s="47">
         <f t="shared" si="6"/>
-        <v>69999666.230591327</v>
+        <v>69693989.001352996</v>
       </c>
       <c r="I34" s="47">
         <f t="shared" si="6"/>
-        <v>71281449.150251567</v>
+        <v>70972103.06895338</v>
       </c>
       <c r="J34" s="47">
         <f t="shared" si="6"/>
-        <v>72449855.490414932</v>
+        <v>72137415.892630085</v>
       </c>
       <c r="K34" s="47">
         <f t="shared" si="6"/>
-        <v>73659272.090114802</v>
+        <v>73343083.212864786</v>
       </c>
       <c r="L34" s="47">
         <f t="shared" si="6"/>
-        <v>74688305.786872953</v>
+        <v>74368955.020521015</v>
       </c>
       <c r="M34" s="37"/>
     </row>
@@ -25109,39 +25109,39 @@
       </c>
       <c r="D38" s="18">
         <f>SUM(D34:D36)</f>
-        <v>165375836.88916117</v>
+        <v>165103070.73531502</v>
       </c>
       <c r="E38" s="18">
         <f t="shared" ref="E38:L38" si="9">SUM(E34:E36)</f>
-        <v>166874245.75337958</v>
+        <v>166577785.7753914</v>
       </c>
       <c r="F38" s="18">
         <f t="shared" si="9"/>
-        <v>168821575.05213097</v>
+        <v>168522051.19937801</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="9"/>
-        <v>171671060.53304312</v>
+        <v>171368419.12671769</v>
       </c>
       <c r="H38" s="18">
         <f t="shared" si="9"/>
-        <v>174686386.93366829</v>
+        <v>174380709.70442995</v>
       </c>
       <c r="I38" s="18">
         <f t="shared" si="9"/>
-        <v>178212628.93191189</v>
+        <v>177903282.85061368</v>
       </c>
       <c r="J38" s="18">
         <f t="shared" si="9"/>
-        <v>181343354.11142123</v>
+        <v>181030914.51363638</v>
       </c>
       <c r="K38" s="18">
         <f t="shared" si="9"/>
-        <v>184419435.29316992</v>
+        <v>184103246.4159199</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" si="9"/>
-        <v>187226483.37566379</v>
+        <v>186907132.60931185</v>
       </c>
     </row>
   </sheetData>
@@ -25989,7 +25989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K221"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
@@ -29311,39 +29311,39 @@
       </c>
       <c r="C14" s="231">
         <f>'Personal y Servicios'!C22</f>
-        <v>50570540.371111102</v>
+        <v>50422792.037777774</v>
       </c>
       <c r="D14" s="231">
         <f>'Personal y Servicios'!D22</f>
-        <v>51123852.380072221</v>
+        <v>50974635.148405552</v>
       </c>
       <c r="E14" s="231">
         <f>'Personal y Servicios'!E22</f>
-        <v>51629827.308585577</v>
+        <v>51479937.720760576</v>
       </c>
       <c r="F14" s="231">
         <f>'Personal y Servicios'!F22</f>
-        <v>52459437.550656408</v>
+        <v>52307986.949428156</v>
       </c>
       <c r="G14" s="231">
         <f>'Personal y Servicios'!G22</f>
-        <v>53171757.037393302</v>
+        <v>53018791.930152774</v>
       </c>
       <c r="H14" s="231">
         <f>'Personal y Servicios'!H22</f>
-        <v>53823065.331906103</v>
+        <v>53668239.422421195</v>
       </c>
       <c r="I14" s="231">
         <f>'Personal y Servicios'!I22</f>
-        <v>54914880.08703731</v>
+        <v>54758531.391624615</v>
       </c>
       <c r="J14" s="231">
         <f>'Personal y Servicios'!J22</f>
-        <v>55542723.284748614</v>
+        <v>55384472.626145899</v>
       </c>
       <c r="K14" s="231">
         <f>'Personal y Servicios'!K22</f>
-        <v>56006461.555352621</v>
+        <v>55846654.426797397</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -29407,39 +29407,39 @@
       </c>
       <c r="C18" s="231">
         <f>SUM(C14:C16)</f>
-        <v>51097760.371111102</v>
+        <v>50950012.037777774</v>
       </c>
       <c r="D18" s="231">
         <f t="shared" ref="D18:K18" si="1">SUM(D14:D16)</f>
-        <v>51656344.580072224</v>
+        <v>51507127.348405555</v>
       </c>
       <c r="E18" s="231">
         <f t="shared" si="1"/>
-        <v>52167644.430585578</v>
+        <v>52017754.842760578</v>
       </c>
       <c r="F18" s="231">
         <f t="shared" si="1"/>
-        <v>53008011.015096411</v>
+        <v>52856560.413868159</v>
       </c>
       <c r="G18" s="231">
         <f t="shared" si="1"/>
-        <v>53728559.103799902</v>
+        <v>53575593.996559374</v>
       </c>
       <c r="H18" s="231">
         <f t="shared" si="1"/>
-        <v>54385435.418976769</v>
+        <v>54230609.509491861</v>
       </c>
       <c r="I18" s="231">
         <f t="shared" si="1"/>
-        <v>55494121.276720099</v>
+        <v>55337772.581307404</v>
       </c>
       <c r="J18" s="231">
         <f t="shared" si="1"/>
-        <v>56127756.886328228</v>
+        <v>55969506.227725513</v>
       </c>
       <c r="K18" s="231">
         <f t="shared" si="1"/>
-        <v>56594420.32494013</v>
+        <v>56434613.196384907</v>
       </c>
     </row>
   </sheetData>
@@ -30112,39 +30112,39 @@
       </c>
       <c r="C27" s="293">
         <f>EGP!C18</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D27" s="293">
         <f>EGP!D18</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E27" s="293">
         <f>EGP!E18</f>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F27" s="293">
         <f>EGP!F18</f>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G27" s="293">
         <f>EGP!G18</f>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H27" s="293">
         <f>EGP!H18</f>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I27" s="293">
         <f>EGP!I18</f>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J27" s="293">
         <f>EGP!J18</f>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K27" s="293">
         <f>EGP!K18</f>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="28">
@@ -30194,39 +30194,39 @@
       </c>
       <c r="C29" s="293">
         <f>C27-C28</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D29" s="293">
         <f t="shared" ref="D29:K29" si="7">D27-D28</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E29" s="293">
         <f t="shared" si="7"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F29" s="293">
         <f t="shared" si="7"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G29" s="293">
         <f t="shared" si="7"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H29" s="293">
         <f t="shared" si="7"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I29" s="293">
         <f t="shared" si="7"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J29" s="293">
         <f t="shared" si="7"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K29" s="293">
         <f t="shared" si="7"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -30276,39 +30276,39 @@
       </c>
       <c r="C31" s="293">
         <f t="shared" ref="C31:K31" si="8">C39</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D31" s="293">
         <f t="shared" si="8"/>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E31" s="293">
         <f t="shared" si="8"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F31" s="293">
         <f t="shared" si="8"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G31" s="293">
         <f t="shared" si="8"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H31" s="293">
         <f t="shared" si="8"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I31" s="293">
         <f t="shared" si="8"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J31" s="293">
         <f t="shared" si="8"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K31" s="293">
         <f t="shared" si="8"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -30317,39 +30317,39 @@
       </c>
       <c r="C32" s="294">
         <f>C30-C31</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="D32" s="294">
         <f t="shared" ref="D32:J32" si="9">D30-D31</f>
-        <v>77279005.81170398</v>
+        <v>76900180.183497354</v>
       </c>
       <c r="E32" s="294">
         <f t="shared" si="9"/>
-        <v>78449627.356543586</v>
+        <v>78067625.932052329</v>
       </c>
       <c r="F32" s="294">
         <f t="shared" si="9"/>
-        <v>80069652.704032138</v>
+        <v>79683674.497611508</v>
       </c>
       <c r="G32" s="294">
         <f t="shared" si="9"/>
-        <v>81570544.989825994</v>
+        <v>81180699.003818959</v>
       </c>
       <c r="H32" s="294">
         <f t="shared" si="9"/>
-        <v>82734748.814375505</v>
+        <v>82340202.622209877</v>
       </c>
       <c r="I32" s="294">
         <f t="shared" si="9"/>
-        <v>84720254.253693312</v>
+        <v>84321784.204475418</v>
       </c>
       <c r="J32" s="294">
         <f t="shared" si="9"/>
-        <v>86083809.188227355</v>
+        <v>85680535.582752526</v>
       </c>
       <c r="K32" s="294">
         <f>K30-K31</f>
-        <v>87155485.276364386</v>
+        <v>86748201.065693304</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -30443,35 +30443,35 @@
       </c>
       <c r="D38" s="295">
         <f>C40</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="E38" s="295">
         <f t="shared" ref="E38:K38" si="10">D40</f>
-        <v>134758063.03401589</v>
+        <v>134021800.09170672</v>
       </c>
       <c r="F38" s="295">
         <f t="shared" si="10"/>
-        <v>213207690.39055949</v>
+        <v>212089426.02375907</v>
       </c>
       <c r="G38" s="295">
         <f t="shared" si="10"/>
-        <v>293277343.09459162</v>
+        <v>291773100.52137059</v>
       </c>
       <c r="H38" s="295">
         <f t="shared" si="10"/>
-        <v>374847888.08441758</v>
+        <v>372953799.52518952</v>
       </c>
       <c r="I38" s="295">
         <f t="shared" si="10"/>
-        <v>457582636.8987931</v>
+        <v>455294002.14739943</v>
       </c>
       <c r="J38" s="295">
         <f t="shared" si="10"/>
-        <v>542302891.15248644</v>
+        <v>539615786.35187483</v>
       </c>
       <c r="K38" s="295">
         <f t="shared" si="10"/>
-        <v>628386700.34071374</v>
+        <v>625296321.93462729</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="28">
@@ -30480,39 +30480,39 @@
       </c>
       <c r="C39" s="295">
         <f>IF(C29&gt;C38,C38,C29)</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D39" s="295">
         <f t="shared" ref="D39:K39" si="11">IF(D29&gt;D38,D38,D29)</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E39" s="295">
         <f t="shared" si="11"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F39" s="295">
         <f t="shared" si="11"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G39" s="295">
         <f t="shared" si="11"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H39" s="295">
         <f t="shared" si="11"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I39" s="295">
         <f t="shared" si="11"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J39" s="295">
         <f t="shared" si="11"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K39" s="295">
         <f t="shared" si="11"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="28">
@@ -30521,39 +30521,39 @@
       </c>
       <c r="C40" s="296">
         <f>C38-C39</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="D40" s="296">
         <f t="shared" ref="D40:K40" si="12">D38-D39</f>
-        <v>134758063.03401589</v>
+        <v>134021800.09170672</v>
       </c>
       <c r="E40" s="296">
         <f t="shared" si="12"/>
-        <v>213207690.39055949</v>
+        <v>212089426.02375907</v>
       </c>
       <c r="F40" s="296">
         <f t="shared" si="12"/>
-        <v>293277343.09459162</v>
+        <v>291773100.52137059</v>
       </c>
       <c r="G40" s="296">
         <f t="shared" si="12"/>
-        <v>374847888.08441758</v>
+        <v>372953799.52518952</v>
       </c>
       <c r="H40" s="296">
         <f t="shared" si="12"/>
-        <v>457582636.8987931</v>
+        <v>455294002.14739943</v>
       </c>
       <c r="I40" s="296">
         <f t="shared" si="12"/>
-        <v>542302891.15248644</v>
+        <v>539615786.35187483</v>
       </c>
       <c r="J40" s="296">
         <f t="shared" si="12"/>
-        <v>628386700.34071374</v>
+        <v>625296321.93462729</v>
       </c>
       <c r="K40" s="296">
         <f t="shared" si="12"/>
-        <v>715542185.61707807</v>
+        <v>712044523.00032055</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -30648,35 +30648,35 @@
       </c>
       <c r="D46" s="293">
         <f>C49</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="E46" s="293">
         <f t="shared" ref="E46:K46" si="13">D49</f>
-        <v>134758063.03401589</v>
+        <v>134021800.09170672</v>
       </c>
       <c r="F46" s="293">
         <f t="shared" si="13"/>
-        <v>213207690.39055949</v>
+        <v>212089426.02375907</v>
       </c>
       <c r="G46" s="293">
         <f t="shared" si="13"/>
-        <v>293277343.09459162</v>
+        <v>291773100.52137059</v>
       </c>
       <c r="H46" s="293">
         <f t="shared" si="13"/>
-        <v>374847888.08441758</v>
+        <v>372953799.52518952</v>
       </c>
       <c r="I46" s="293">
         <f t="shared" si="13"/>
-        <v>457582636.8987931</v>
+        <v>455294002.14739943</v>
       </c>
       <c r="J46" s="293">
         <f t="shared" si="13"/>
-        <v>542302891.15248644</v>
+        <v>539615786.35187483</v>
       </c>
       <c r="K46" s="293">
         <f t="shared" si="13"/>
-        <v>628386700.34071374</v>
+        <v>625296321.93462729</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -30685,39 +30685,39 @@
       </c>
       <c r="C47" s="293">
         <f>IF(C27&lt;0,-C27,0)</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="D47" s="293">
         <f t="shared" ref="D47:K47" si="14">IF(D27&lt;0,-D27,0)</f>
-        <v>77279005.81170398</v>
+        <v>76900180.183497354</v>
       </c>
       <c r="E47" s="293">
         <f t="shared" si="14"/>
-        <v>78449627.356543586</v>
+        <v>78067625.932052329</v>
       </c>
       <c r="F47" s="293">
         <f t="shared" si="14"/>
-        <v>80069652.704032138</v>
+        <v>79683674.497611508</v>
       </c>
       <c r="G47" s="293">
         <f t="shared" si="14"/>
-        <v>81570544.989825994</v>
+        <v>81180699.003818959</v>
       </c>
       <c r="H47" s="293">
         <f t="shared" si="14"/>
-        <v>82734748.814375505</v>
+        <v>82340202.622209877</v>
       </c>
       <c r="I47" s="293">
         <f t="shared" si="14"/>
-        <v>84720254.253693312</v>
+        <v>84321784.204475418</v>
       </c>
       <c r="J47" s="293">
         <f t="shared" si="14"/>
-        <v>86083809.188227355</v>
+        <v>85680535.582752526</v>
       </c>
       <c r="K47" s="293">
         <f t="shared" si="14"/>
-        <v>87155485.276364386</v>
+        <v>86748201.065693304</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="28">
@@ -30767,39 +30767,39 @@
       </c>
       <c r="C49" s="294">
         <f>C46+C47-C48</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="D49" s="294">
         <f t="shared" ref="D49:K49" si="16">D46+D47-D48</f>
-        <v>134758063.03401589</v>
+        <v>134021800.09170672</v>
       </c>
       <c r="E49" s="294">
         <f t="shared" si="16"/>
-        <v>213207690.39055949</v>
+        <v>212089426.02375907</v>
       </c>
       <c r="F49" s="294">
         <f t="shared" si="16"/>
-        <v>293277343.09459162</v>
+        <v>291773100.52137059</v>
       </c>
       <c r="G49" s="294">
         <f t="shared" si="16"/>
-        <v>374847888.08441758</v>
+        <v>372953799.52518952</v>
       </c>
       <c r="H49" s="294">
         <f t="shared" si="16"/>
-        <v>457582636.8987931</v>
+        <v>455294002.14739943</v>
       </c>
       <c r="I49" s="294">
         <f t="shared" si="16"/>
-        <v>542302891.15248644</v>
+        <v>539615786.35187483</v>
       </c>
       <c r="J49" s="294">
         <f t="shared" si="16"/>
-        <v>628386700.34071374</v>
+        <v>625296321.93462729</v>
       </c>
       <c r="K49" s="294">
         <f t="shared" si="16"/>
-        <v>715542185.61707807</v>
+        <v>712044523.00032055</v>
       </c>
     </row>
   </sheetData>
@@ -30985,39 +30985,39 @@
       </c>
       <c r="C7" s="303">
         <f>'Costo de ventas'!D38</f>
-        <v>165375836.88916117</v>
+        <v>165103070.73531502</v>
       </c>
       <c r="D7" s="303">
         <f>'Costo de ventas'!E38</f>
-        <v>166874245.75337958</v>
+        <v>166577785.7753914</v>
       </c>
       <c r="E7" s="303">
         <f>'Costo de ventas'!F38</f>
-        <v>168821575.05213097</v>
+        <v>168522051.19937801</v>
       </c>
       <c r="F7" s="303">
         <f>'Costo de ventas'!G38</f>
-        <v>171671060.53304312</v>
+        <v>171368419.12671769</v>
       </c>
       <c r="G7" s="303">
         <f>'Costo de ventas'!H38</f>
-        <v>174686386.93366829</v>
+        <v>174380709.70442995</v>
       </c>
       <c r="H7" s="303">
         <f>'Costo de ventas'!I38</f>
-        <v>178212628.93191189</v>
+        <v>177903282.85061368</v>
       </c>
       <c r="I7" s="303">
         <f>'Costo de ventas'!J38</f>
-        <v>181343354.11142123</v>
+        <v>181030914.51363638</v>
       </c>
       <c r="J7" s="303">
         <f>'Costo de ventas'!K38</f>
-        <v>184419435.29316992</v>
+        <v>184103246.4159199</v>
       </c>
       <c r="K7" s="303">
         <f>'Costo de ventas'!L38</f>
-        <v>187226483.37566379</v>
+        <v>186907132.60931185</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -31026,39 +31026,39 @@
       </c>
       <c r="C8" s="306">
         <f>C5-C6-C7</f>
-        <v>-13460485.952805221</v>
+        <v>-13187719.798959076</v>
       </c>
       <c r="D8" s="306">
         <f t="shared" ref="D8:K8" si="0">D5-D6-D7</f>
-        <v>-36127147.701594934</v>
+        <v>-35830687.72360675</v>
       </c>
       <c r="E8" s="306">
         <f t="shared" si="0"/>
-        <v>-34958389.951806754</v>
+        <v>-34658866.0990538</v>
       </c>
       <c r="F8" s="306">
         <f t="shared" si="0"/>
-        <v>-34996576.638683707</v>
+        <v>-34693935.232358277</v>
       </c>
       <c r="G8" s="306">
         <f t="shared" si="0"/>
-        <v>-35009855.317955524</v>
+        <v>-34704178.088717192</v>
       </c>
       <c r="H8" s="306">
         <f t="shared" si="0"/>
-        <v>-34669999.943071753</v>
+        <v>-34360653.861773551</v>
       </c>
       <c r="I8" s="306">
         <f t="shared" si="0"/>
-        <v>-34866908.825667977</v>
+        <v>-34554469.22788313</v>
       </c>
       <c r="J8" s="306">
         <f t="shared" si="0"/>
-        <v>-34802202.237328529</v>
+        <v>-34486013.360078514</v>
       </c>
       <c r="K8" s="306">
         <f t="shared" si="0"/>
-        <v>-34563354.918745637</v>
+        <v>-34244004.152393699</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -31067,39 +31067,39 @@
       </c>
       <c r="C9" s="303">
         <f>Gastos!C18</f>
-        <v>51097760.371111102</v>
+        <v>50950012.037777774</v>
       </c>
       <c r="D9" s="303">
         <f>Gastos!D18</f>
-        <v>51656344.580072224</v>
+        <v>51507127.348405555</v>
       </c>
       <c r="E9" s="303">
         <f>Gastos!E18</f>
-        <v>52167644.430585578</v>
+        <v>52017754.842760578</v>
       </c>
       <c r="F9" s="303">
         <f>Gastos!F18</f>
-        <v>53008011.015096411</v>
+        <v>52856560.413868159</v>
       </c>
       <c r="G9" s="303">
         <f>Gastos!G18</f>
-        <v>53728559.103799902</v>
+        <v>53575593.996559374</v>
       </c>
       <c r="H9" s="303">
         <f>Gastos!H18</f>
-        <v>54385435.418976769</v>
+        <v>54230609.509491861</v>
       </c>
       <c r="I9" s="303">
         <f>Gastos!I18</f>
-        <v>55494121.276720099</v>
+        <v>55337772.581307404</v>
       </c>
       <c r="J9" s="303">
         <f>Gastos!J18</f>
-        <v>56127756.886328228</v>
+        <v>55969506.227725513</v>
       </c>
       <c r="K9" s="303">
         <f>Gastos!K18</f>
-        <v>56594420.32494013</v>
+        <v>56434613.196384907</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -31190,39 +31190,39 @@
       </c>
       <c r="C12" s="306">
         <f>C8-C9-C10-C11</f>
-        <v>-67622420.261543438</v>
+        <v>-67201905.774363965</v>
       </c>
       <c r="D12" s="306">
         <f t="shared" ref="D12:K12" si="1">D8-D9-D10-D11</f>
-        <v>-90916477.425534099</v>
+        <v>-90470800.215879261</v>
       </c>
       <c r="E12" s="306">
         <f t="shared" si="1"/>
-        <v>-92293679.242992446</v>
+        <v>-91844265.802414492</v>
       </c>
       <c r="F12" s="306">
         <f t="shared" si="1"/>
-        <v>-94199591.416508391</v>
+        <v>-93745499.40895471</v>
       </c>
       <c r="G12" s="306">
         <f t="shared" si="1"/>
-        <v>-95965347.046854109</v>
+        <v>-95506704.710375249</v>
       </c>
       <c r="H12" s="306">
         <f t="shared" si="1"/>
-        <v>-97334998.60514766</v>
+        <v>-96870826.614364564</v>
       </c>
       <c r="I12" s="306">
         <f t="shared" si="1"/>
-        <v>-99670887.35728626</v>
+        <v>-99202099.064088717</v>
       </c>
       <c r="J12" s="306">
         <f t="shared" si="1"/>
-        <v>-101275069.63320865</v>
+        <v>-100800630.09735592</v>
       </c>
       <c r="K12" s="306">
         <f t="shared" si="1"/>
-        <v>-102535865.03101693</v>
+        <v>-102056707.13610977</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -31263,39 +31263,39 @@
       </c>
       <c r="C14" s="306">
         <f>C12+C13</f>
-        <v>-67622420.261543438</v>
+        <v>-67201905.774363965</v>
       </c>
       <c r="D14" s="306">
         <f t="shared" ref="D14:K14" si="2">D12+D13</f>
-        <v>-90916477.425534099</v>
+        <v>-90470800.215879261</v>
       </c>
       <c r="E14" s="306">
         <f t="shared" si="2"/>
-        <v>-92293679.242992446</v>
+        <v>-91844265.802414492</v>
       </c>
       <c r="F14" s="306">
         <f t="shared" si="2"/>
-        <v>-94199591.416508391</v>
+        <v>-93745499.40895471</v>
       </c>
       <c r="G14" s="306">
         <f t="shared" si="2"/>
-        <v>-95965347.046854109</v>
+        <v>-95506704.710375249</v>
       </c>
       <c r="H14" s="306">
         <f t="shared" si="2"/>
-        <v>-97334998.60514766</v>
+        <v>-96870826.614364564</v>
       </c>
       <c r="I14" s="306">
         <f t="shared" si="2"/>
-        <v>-99670887.35728626</v>
+        <v>-99202099.064088717</v>
       </c>
       <c r="J14" s="306">
         <f t="shared" si="2"/>
-        <v>-101275069.63320865</v>
+        <v>-100800630.09735592</v>
       </c>
       <c r="K14" s="306">
         <f t="shared" si="2"/>
-        <v>-102535865.03101693</v>
+        <v>-102056707.13610977</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -31304,39 +31304,39 @@
       </c>
       <c r="C15" s="307">
         <f>C14*Parametros!$C$199</f>
-        <v>-4057345.2156926063</v>
+        <v>-4032114.3464618376</v>
       </c>
       <c r="D15" s="307">
         <f>D14*Parametros!$C$199</f>
-        <v>-5454988.6455320455</v>
+        <v>-5428248.0129527552</v>
       </c>
       <c r="E15" s="307">
         <f>E14*Parametros!$C$199</f>
-        <v>-5537620.7545795469</v>
+        <v>-5510655.9481448689</v>
       </c>
       <c r="F15" s="307">
         <f>F14*Parametros!$C$199</f>
-        <v>-5651975.4849905036</v>
+        <v>-5624729.9645372825</v>
       </c>
       <c r="G15" s="307">
         <f>G14*Parametros!$C$199</f>
-        <v>-5757920.8228112459</v>
+        <v>-5730402.2826225143</v>
       </c>
       <c r="H15" s="307">
         <f>H14*Parametros!$C$199</f>
-        <v>-5840099.9163088594</v>
+        <v>-5812249.5968618738</v>
       </c>
       <c r="I15" s="307">
         <f>I14*Parametros!$C$199</f>
-        <v>-5980253.2414371753</v>
+        <v>-5952125.9438453224</v>
       </c>
       <c r="J15" s="307">
         <f>J14*Parametros!$C$199</f>
-        <v>-6076504.177992519</v>
+        <v>-6048037.8058413547</v>
       </c>
       <c r="K15" s="307">
         <f>K14*Parametros!$C$199</f>
-        <v>-6152151.9018610157</v>
+        <v>-6123402.428166586</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -31345,39 +31345,39 @@
       </c>
       <c r="C16" s="307">
         <f>C14*Parametros!$C$200</f>
-        <v>-2704896.8104617377</v>
+        <v>-2688076.2309745587</v>
       </c>
       <c r="D16" s="307">
         <f>D14*Parametros!$C$200</f>
-        <v>-3636659.0970213641</v>
+        <v>-3618832.0086351708</v>
       </c>
       <c r="E16" s="307">
         <f>E14*Parametros!$C$200</f>
-        <v>-3691747.1697196979</v>
+        <v>-3673770.6320965798</v>
       </c>
       <c r="F16" s="307">
         <f>F14*Parametros!$C$200</f>
-        <v>-3767983.6566603356</v>
+        <v>-3749819.9763581883</v>
       </c>
       <c r="G16" s="307">
         <f>G14*Parametros!$C$200</f>
-        <v>-3838613.8818741646</v>
+        <v>-3820268.18841501</v>
       </c>
       <c r="H16" s="307">
         <f>H14*Parametros!$C$200</f>
-        <v>-3893399.9442059062</v>
+        <v>-3874833.0645745825</v>
       </c>
       <c r="I16" s="307">
         <f>I14*Parametros!$C$200</f>
-        <v>-3986835.4942914504</v>
+        <v>-3968083.9625635487</v>
       </c>
       <c r="J16" s="307">
         <f>J14*Parametros!$C$200</f>
-        <v>-4051002.7853283458</v>
+        <v>-4032025.2038942366</v>
       </c>
       <c r="K16" s="307">
         <f>K14*Parametros!$C$200</f>
-        <v>-4101434.6012406773</v>
+        <v>-4082268.285444391</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -31386,39 +31386,39 @@
       </c>
       <c r="C17" s="307">
         <f>C14*Parametros!$C$198</f>
-        <v>-3381121.013077172</v>
+        <v>-3360095.2887181984</v>
       </c>
       <c r="D17" s="307">
         <f>D14*Parametros!$C$198</f>
-        <v>-4545823.8712767055</v>
+        <v>-4523540.0107939634</v>
       </c>
       <c r="E17" s="307">
         <f>E14*Parametros!$C$198</f>
-        <v>-4614683.9621496229</v>
+        <v>-4592213.2901207246</v>
       </c>
       <c r="F17" s="307">
         <f>F14*Parametros!$C$198</f>
-        <v>-4709979.5708254194</v>
+        <v>-4687274.9704477359</v>
       </c>
       <c r="G17" s="307">
         <f>G14*Parametros!$C$198</f>
-        <v>-4798267.3523427052</v>
+        <v>-4775335.2355187628</v>
       </c>
       <c r="H17" s="307">
         <f>H14*Parametros!$C$198</f>
-        <v>-4866749.9302573828</v>
+        <v>-4843541.3307182286</v>
       </c>
       <c r="I17" s="307">
         <f>I14*Parametros!$C$198</f>
-        <v>-4983544.3678643135</v>
+        <v>-4960104.9532044362</v>
       </c>
       <c r="J17" s="307">
         <f>J14*Parametros!$C$198</f>
-        <v>-5063753.4816604331</v>
+        <v>-5040031.5048677959</v>
       </c>
       <c r="K17" s="307">
         <f>K14*Parametros!$C$198</f>
-        <v>-5126793.2515508467</v>
+        <v>-5102835.3568054885</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -31427,39 +31427,39 @@
       </c>
       <c r="C18" s="309">
         <f>C14-C15-C16-C17</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D18" s="309">
         <f t="shared" ref="D18:K18" si="3">D14-D15-D16-D17</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E18" s="309">
         <f t="shared" si="3"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F18" s="309">
         <f t="shared" si="3"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G18" s="309">
         <f t="shared" si="3"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H18" s="309">
         <f t="shared" si="3"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I18" s="309">
         <f t="shared" si="3"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J18" s="309">
         <f t="shared" si="3"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K18" s="309">
         <f t="shared" si="3"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -31509,39 +31509,39 @@
       </c>
       <c r="C20" s="310">
         <f>C18-C19</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D20" s="310">
         <f t="shared" ref="D20:K20" si="4">D18-D19</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E20" s="310">
         <f t="shared" si="4"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F20" s="310">
         <f t="shared" si="4"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G20" s="310">
         <f t="shared" si="4"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H20" s="310">
         <f t="shared" si="4"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I20" s="310">
         <f t="shared" si="4"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J20" s="310">
         <f t="shared" si="4"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K20" s="310">
         <f t="shared" si="4"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -31591,39 +31591,39 @@
       </c>
       <c r="C22" s="306">
         <f>C20-C21</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D22" s="306">
         <f t="shared" ref="D22:K22" si="6">D20-D21</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E22" s="306">
         <f t="shared" si="6"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F22" s="306">
         <f t="shared" si="6"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G22" s="306">
         <f t="shared" si="6"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H22" s="306">
         <f t="shared" si="6"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I22" s="306">
         <f t="shared" si="6"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J22" s="306">
         <f t="shared" si="6"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K22" s="306">
         <f t="shared" si="6"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -31713,39 +31713,39 @@
       </c>
       <c r="C25" s="306">
         <f t="shared" ref="C25:K25" si="7">C22-C23-C24</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D25" s="306">
         <f t="shared" si="7"/>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E25" s="306">
         <f t="shared" si="7"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F25" s="306">
         <f t="shared" si="7"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G25" s="306">
         <f t="shared" si="7"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H25" s="306">
         <f t="shared" si="7"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I25" s="306">
         <f t="shared" si="7"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J25" s="306">
         <f t="shared" si="7"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K25" s="306">
         <f t="shared" si="7"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -31795,39 +31795,39 @@
       </c>
       <c r="C27" s="306">
         <f>C25+C26</f>
-        <v>-52089057.222311921</v>
+        <v>-51731619.908209361</v>
       </c>
       <c r="D27" s="306">
         <f t="shared" ref="D27:K27" si="9">D25+D26</f>
-        <v>-77279005.81170398</v>
+        <v>-76900180.183497354</v>
       </c>
       <c r="E27" s="306">
         <f t="shared" si="9"/>
-        <v>-78449627.356543586</v>
+        <v>-78067625.932052329</v>
       </c>
       <c r="F27" s="306">
         <f t="shared" si="9"/>
-        <v>-80069652.704032138</v>
+        <v>-79683674.497611508</v>
       </c>
       <c r="G27" s="306">
         <f t="shared" si="9"/>
-        <v>-81570544.989825994</v>
+        <v>-81180699.003818959</v>
       </c>
       <c r="H27" s="306">
         <f t="shared" si="9"/>
-        <v>-82734748.814375505</v>
+        <v>-82340202.622209877</v>
       </c>
       <c r="I27" s="306">
         <f t="shared" si="9"/>
-        <v>-84720254.253693312</v>
+        <v>-84321784.204475418</v>
       </c>
       <c r="J27" s="306">
         <f t="shared" si="9"/>
-        <v>-86083809.188227355</v>
+        <v>-85680535.582752526</v>
       </c>
       <c r="K27" s="306">
         <f t="shared" si="9"/>
-        <v>-87155485.276364386</v>
+        <v>-86748201.065693304</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -31836,39 +31836,39 @@
       </c>
       <c r="C28" s="306">
         <f>C22</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="D28" s="306">
         <f>C28+D27</f>
-        <v>-134758063.03401589</v>
+        <v>-134021800.09170672</v>
       </c>
       <c r="E28" s="306">
         <f>D28+E27</f>
-        <v>-213207690.39055949</v>
+        <v>-212089426.02375907</v>
       </c>
       <c r="F28" s="306">
         <f t="shared" ref="F28:K28" si="10">E28+F27</f>
-        <v>-293277343.09459162</v>
+        <v>-291773100.52137059</v>
       </c>
       <c r="G28" s="306">
         <f t="shared" si="10"/>
-        <v>-374847888.08441758</v>
+        <v>-372953799.52518952</v>
       </c>
       <c r="H28" s="306">
         <f t="shared" si="10"/>
-        <v>-457582636.8987931</v>
+        <v>-455294002.14739943</v>
       </c>
       <c r="I28" s="306">
         <f t="shared" si="10"/>
-        <v>-542302891.15248644</v>
+        <v>-539615786.35187483</v>
       </c>
       <c r="J28" s="306">
         <f t="shared" si="10"/>
-        <v>-628386700.34071374</v>
+        <v>-625296321.93462729</v>
       </c>
       <c r="K28" s="306">
         <f t="shared" si="10"/>
-        <v>-715542185.61707807</v>
+        <v>-712044523.00032055</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -32281,35 +32281,35 @@
       </c>
       <c r="D7" s="89">
         <f>'Balance general'!D50</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="E7" s="89">
         <f>'Balance general'!E50</f>
-        <v>-134758063.03401589</v>
+        <v>-134021800.09170672</v>
       </c>
       <c r="F7" s="89">
         <f>'Balance general'!F50</f>
-        <v>-213207690.39055949</v>
+        <v>-212089426.02375907</v>
       </c>
       <c r="G7" s="89">
         <f>'Balance general'!G50</f>
-        <v>-293277343.09459162</v>
+        <v>-291773100.52137059</v>
       </c>
       <c r="H7" s="89">
         <f>'Balance general'!H50</f>
-        <v>-374847888.08441758</v>
+        <v>-372953799.52518952</v>
       </c>
       <c r="I7" s="89">
         <f>'Balance general'!I50</f>
-        <v>-457582636.8987931</v>
+        <v>-455294002.14739943</v>
       </c>
       <c r="J7" s="89">
         <f>'Balance general'!J50</f>
-        <v>-542302891.15248644</v>
+        <v>-539615786.35187483</v>
       </c>
       <c r="K7" s="89">
         <f>'Balance general'!K50</f>
-        <v>-628386700.34071374</v>
+        <v>-625296321.93462729</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -32327,7 +32327,7 @@
       </c>
       <c r="C9" s="91">
         <f>NPV(C8,C7:K7)</f>
-        <v>-1259391486.5576167</v>
+        <v>-1252823693.105207</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -32373,7 +32373,7 @@
       </c>
       <c r="C13" s="94">
         <f>'Balance general'!L24</f>
-        <v>219227076.93433416</v>
+        <v>218907726.16798222</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -32382,7 +32382,7 @@
       </c>
       <c r="C14" s="94">
         <f>'Balance general'!L45</f>
-        <v>123344707.44313459</v>
+        <v>122937423.23246351</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -32391,7 +32391,7 @@
       </c>
       <c r="C15" s="94">
         <f>C13-C14</f>
-        <v>95882369.491199568</v>
+        <v>95970302.935518712</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -32404,7 +32404,7 @@
       </c>
       <c r="C17" s="89">
         <f>C15/((1+C8)^COUNT(C6:K6))</f>
-        <v>34576143.65751452</v>
+        <v>34607853.339067161</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -32451,7 +32451,7 @@
       </c>
       <c r="C21" s="98">
         <f>C9+C17</f>
-        <v>-1224815342.9001021</v>
+        <v>-1218215839.7661397</v>
       </c>
     </row>
   </sheetData>
@@ -32872,7 +32872,7 @@
       </c>
       <c r="D16" s="18">
         <f t="shared" ref="D16:K16" si="4">D118</f>
-        <v>9835249.3573135138</v>
+        <v>10340435.004749388</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" si="4"/>
@@ -32913,35 +32913,35 @@
       </c>
       <c r="D17" s="18">
         <f t="shared" si="5"/>
-        <v>3713404.0896579623</v>
+        <v>2680175.5823488235</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="5"/>
-        <v>21235961.990138888</v>
+        <v>20704070.977822602</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" si="5"/>
-        <v>20968557.496468782</v>
+        <v>20431128.688819885</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="5"/>
-        <v>20815661.898411393</v>
+        <v>20272850.80516386</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="5"/>
-        <v>19351378.656255007</v>
+        <v>18802006.554604501</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="5"/>
-        <v>20381278.286946416</v>
+        <v>19826459.542315811</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="5"/>
-        <v>19915127.077766001</v>
+        <v>19353602.813688457</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="5"/>
-        <v>19123325.264523149</v>
+        <v>18556233.925296843</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="37" customHeight="1">
@@ -32954,35 +32954,35 @@
       </c>
       <c r="D18" s="249">
         <f t="shared" si="6"/>
-        <v>24048653.446971476</v>
+        <v>23520610.587098211</v>
       </c>
       <c r="E18" s="249">
         <f t="shared" si="6"/>
-        <v>31735961.990138888</v>
+        <v>31204070.977822602</v>
       </c>
       <c r="F18" s="249">
         <f t="shared" si="6"/>
-        <v>31468557.496468782</v>
+        <v>30931128.688819885</v>
       </c>
       <c r="G18" s="249">
         <f t="shared" si="6"/>
-        <v>31315661.898411393</v>
+        <v>30772850.80516386</v>
       </c>
       <c r="H18" s="249">
         <f t="shared" si="6"/>
-        <v>29851378.656255007</v>
+        <v>29302006.554604501</v>
       </c>
       <c r="I18" s="249">
         <f t="shared" si="6"/>
-        <v>30881278.286946416</v>
+        <v>30326459.542315811</v>
       </c>
       <c r="J18" s="249">
         <f t="shared" si="6"/>
-        <v>30415127.077766001</v>
+        <v>29853602.813688457</v>
       </c>
       <c r="K18" s="249">
         <f t="shared" si="6"/>
-        <v>29623325.264523149</v>
+        <v>29056233.925296843</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -33000,35 +33000,35 @@
       </c>
       <c r="D20" s="18">
         <f t="shared" si="7"/>
-        <v>208292946.08792862</v>
+        <v>207764903.22805536</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="7"/>
-        <v>220336561.93978405</v>
+        <v>219804670.92746776</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="7"/>
-        <v>224103277.71037567</v>
+        <v>223565848.90272677</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="7"/>
-        <v>228156065.6154376</v>
+        <v>227613254.52219006</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="7"/>
-        <v>231985569.9844662</v>
+        <v>231436197.88281569</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="7"/>
-        <v>237346945.49458751</v>
+        <v>236792126.74995691</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="7"/>
-        <v>241279378.23525786</v>
+        <v>240717853.97118032</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="7"/>
-        <v>244811765.20092171</v>
+        <v>244244673.86169541</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -33171,39 +33171,39 @@
       </c>
       <c r="C26" s="18">
         <f>'Personal y Servicios'!C34</f>
-        <v>53415770.971111104</v>
+        <v>53268022.637777776</v>
       </c>
       <c r="D26" s="18">
         <f>'Personal y Servicios'!D34</f>
-        <v>53997535.286072217</v>
+        <v>53848318.054405548</v>
       </c>
       <c r="E26" s="18">
         <f>'Personal y Servicios'!E34</f>
-        <v>54532247.043645583</v>
+        <v>54382357.455820583</v>
       </c>
       <c r="F26" s="18">
         <f>'Personal y Servicios'!F34</f>
-        <v>55390881.483067006</v>
+        <v>55239430.881838754</v>
       </c>
       <c r="G26" s="18">
         <f>'Personal y Servicios'!G34</f>
-        <v>56161829.848452114</v>
+        <v>56008864.741211586</v>
       </c>
       <c r="H26" s="18">
         <f>'Personal y Servicios'!H34</f>
-        <v>56857989.235130802</v>
+        <v>56703163.325645894</v>
       </c>
       <c r="I26" s="18">
         <f>'Personal y Servicios'!I34</f>
-        <v>57980153.229294248</v>
+        <v>57823804.533881553</v>
       </c>
       <c r="J26" s="18">
         <f>'Personal y Servicios'!J34</f>
-        <v>58699954.621273264</v>
+        <v>58541703.96267055</v>
       </c>
       <c r="K26" s="18">
         <f>'Personal y Servicios'!K34</f>
-        <v>59195265.205242515</v>
+        <v>59035458.076687291</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
@@ -33335,39 +33335,39 @@
       </c>
       <c r="C30" s="16">
         <f>'IGV e IR'!C32</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="D30" s="16">
         <f>'IGV e IR'!D32</f>
-        <v>77279005.81170398</v>
+        <v>76900180.183497354</v>
       </c>
       <c r="E30" s="16">
         <f>'IGV e IR'!E32</f>
-        <v>78449627.356543586</v>
+        <v>78067625.932052329</v>
       </c>
       <c r="F30" s="16">
         <f>'IGV e IR'!F32</f>
-        <v>80069652.704032138</v>
+        <v>79683674.497611508</v>
       </c>
       <c r="G30" s="16">
         <f>'IGV e IR'!G32</f>
-        <v>81570544.989825994</v>
+        <v>81180699.003818959</v>
       </c>
       <c r="H30" s="16">
         <f>'IGV e IR'!H32</f>
-        <v>82734748.814375505</v>
+        <v>82340202.622209877</v>
       </c>
       <c r="I30" s="16">
         <f>'IGV e IR'!I32</f>
-        <v>84720254.253693312</v>
+        <v>84321784.204475418</v>
       </c>
       <c r="J30" s="16">
         <f>'IGV e IR'!J32</f>
-        <v>86083809.188227355</v>
+        <v>85680535.582752526</v>
       </c>
       <c r="K30" s="16">
         <f>'IGV e IR'!K32</f>
-        <v>87155485.276364386</v>
+        <v>86748201.065693304</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -33458,39 +33458,39 @@
       </c>
       <c r="C34" s="249">
         <f t="shared" ref="C34:K34" si="9">SUM(C24:C32)</f>
-        <v>141950274.74268648</v>
+        <v>141445089.09525061</v>
       </c>
       <c r="D34" s="249">
         <f t="shared" si="9"/>
-        <v>213292946.08792862</v>
+        <v>212764903.22805536</v>
       </c>
       <c r="E34" s="249">
         <f t="shared" si="9"/>
-        <v>220336561.93978405</v>
+        <v>219804670.92746776</v>
       </c>
       <c r="F34" s="249">
         <f t="shared" si="9"/>
-        <v>224103277.71037567</v>
+        <v>223565848.90272677</v>
       </c>
       <c r="G34" s="249">
         <f t="shared" si="9"/>
-        <v>228156065.6154376</v>
+        <v>227613254.52219006</v>
       </c>
       <c r="H34" s="249">
         <f t="shared" si="9"/>
-        <v>231985569.9844662</v>
+        <v>231436197.88281569</v>
       </c>
       <c r="I34" s="249">
         <f t="shared" si="9"/>
-        <v>237346945.49458751</v>
+        <v>236792126.74995691</v>
       </c>
       <c r="J34" s="249">
         <f t="shared" si="9"/>
-        <v>241279378.23525786</v>
+        <v>240717853.97118032</v>
       </c>
       <c r="K34" s="249">
         <f t="shared" si="9"/>
-        <v>244811765.20092171</v>
+        <v>244244673.86169541</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -33618,7 +33618,7 @@
       </c>
       <c r="C39" s="16">
         <f>C117</f>
-        <v>8997421.3573135138</v>
+        <v>9502607.0047493875</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" ref="D39:K39" si="12">D117</f>
@@ -33659,7 +33659,7 @@
       </c>
       <c r="C40" s="250">
         <f t="shared" ref="C40:K40" si="13">SUM(C37:C39)</f>
-        <v>23997421.357313514</v>
+        <v>24502607.004749388</v>
       </c>
       <c r="D40" s="250">
         <f t="shared" si="13"/>
@@ -33709,35 +33709,35 @@
       </c>
       <c r="D42" s="18">
         <f t="shared" si="14"/>
-        <v>213292946.08792862</v>
+        <v>212764903.22805536</v>
       </c>
       <c r="E42" s="18">
         <f t="shared" si="14"/>
-        <v>220336561.93978405</v>
+        <v>219804670.92746776</v>
       </c>
       <c r="F42" s="18">
         <f t="shared" si="14"/>
-        <v>224103277.71037567</v>
+        <v>223565848.90272677</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="14"/>
-        <v>228156065.6154376</v>
+        <v>227613254.52219006</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" si="14"/>
-        <v>231985569.9844662</v>
+        <v>231436197.88281569</v>
       </c>
       <c r="I42" s="18">
         <f t="shared" si="14"/>
-        <v>237346945.49458751</v>
+        <v>236792126.74995691</v>
       </c>
       <c r="J42" s="18">
         <f t="shared" si="14"/>
-        <v>241279378.23525786</v>
+        <v>240717853.97118032</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="14"/>
-        <v>244811765.20092171</v>
+        <v>244244673.86169541</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -33759,39 +33759,39 @@
       </c>
       <c r="C46" s="18">
         <f t="shared" ref="C46:K46" si="15">C5+C11-C34</f>
-        <v>30997421.357313514</v>
+        <v>31502607.004749388</v>
       </c>
       <c r="D46" s="18">
         <f t="shared" si="15"/>
-        <v>-22048653.446971476</v>
+        <v>-21520610.587098211</v>
       </c>
       <c r="E46" s="18">
         <f t="shared" si="15"/>
-        <v>-29735961.990138888</v>
+        <v>-29204070.977822602</v>
       </c>
       <c r="F46" s="18">
         <f t="shared" si="15"/>
-        <v>-29468557.496468782</v>
+        <v>-28931128.688819885</v>
       </c>
       <c r="G46" s="18">
         <f t="shared" si="15"/>
-        <v>-29315661.898411393</v>
+        <v>-28772850.80516386</v>
       </c>
       <c r="H46" s="18">
         <f t="shared" si="15"/>
-        <v>-27851378.656255007</v>
+        <v>-27302006.554604501</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" si="15"/>
-        <v>-28881278.286946416</v>
+        <v>-28326459.542315811</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="15"/>
-        <v>-28415127.077766001</v>
+        <v>-27853602.813688457</v>
       </c>
       <c r="K46" s="18">
         <f t="shared" si="15"/>
-        <v>-27623325.264523149</v>
+        <v>-27056233.925296843</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -33940,35 +33940,35 @@
       </c>
       <c r="D54" s="18">
         <f>IF(D53,Parametros!$C$216-D46,0)</f>
-        <v>24048653.446971476</v>
+        <v>23520610.587098211</v>
       </c>
       <c r="E54" s="18">
         <f>IF(E53,Parametros!$C$216-E46,0)</f>
-        <v>31735961.990138888</v>
+        <v>31204070.977822602</v>
       </c>
       <c r="F54" s="18">
         <f>IF(F53,Parametros!$C$216-F46,0)</f>
-        <v>31468557.496468782</v>
+        <v>30931128.688819885</v>
       </c>
       <c r="G54" s="18">
         <f>IF(G53,Parametros!$C$216-G46,0)</f>
-        <v>31315661.898411393</v>
+        <v>30772850.80516386</v>
       </c>
       <c r="H54" s="18">
         <f>IF(H53,Parametros!$C$216-H46,0)</f>
-        <v>29851378.656255007</v>
+        <v>29302006.554604501</v>
       </c>
       <c r="I54" s="18">
         <f>IF(I53,Parametros!$C$216-I46,0)</f>
-        <v>30881278.286946416</v>
+        <v>30326459.542315811</v>
       </c>
       <c r="J54" s="18">
         <f>IF(J53,Parametros!$C$216-J46,0)</f>
-        <v>30415127.077766001</v>
+        <v>29853602.813688457</v>
       </c>
       <c r="K54" s="18">
         <f>IF(K53,Parametros!$C$216-K46,0)</f>
-        <v>29623325.264523149</v>
+        <v>29056233.925296843</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -34066,35 +34066,35 @@
       </c>
       <c r="D57" s="18">
         <f t="shared" ref="D57:K57" si="18">D54-D56</f>
-        <v>21548653.446971476</v>
+        <v>21020610.587098211</v>
       </c>
       <c r="E57" s="18">
         <f t="shared" si="18"/>
-        <v>29235961.990138888</v>
+        <v>28704070.977822602</v>
       </c>
       <c r="F57" s="18">
         <f t="shared" si="18"/>
-        <v>28968557.496468782</v>
+        <v>28431128.688819885</v>
       </c>
       <c r="G57" s="18">
         <f t="shared" si="18"/>
-        <v>28815661.898411393</v>
+        <v>28272850.80516386</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" si="18"/>
-        <v>27351378.656255007</v>
+        <v>26802006.554604501</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" si="18"/>
-        <v>28381278.286946416</v>
+        <v>27826459.542315811</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="18"/>
-        <v>27915127.077766001</v>
+        <v>27353602.813688457</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" si="18"/>
-        <v>27123325.264523149</v>
+        <v>26556233.925296843</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -34192,35 +34192,35 @@
       </c>
       <c r="D60" s="18">
         <f t="shared" ref="D60:K60" si="20">D57-D59</f>
-        <v>13548653.446971476</v>
+        <v>13020610.587098211</v>
       </c>
       <c r="E60" s="18">
         <f t="shared" si="20"/>
-        <v>21235961.990138888</v>
+        <v>20704070.977822602</v>
       </c>
       <c r="F60" s="18">
         <f t="shared" si="20"/>
-        <v>20968557.496468782</v>
+        <v>20431128.688819885</v>
       </c>
       <c r="G60" s="18">
         <f t="shared" si="20"/>
-        <v>20815661.898411393</v>
+        <v>20272850.80516386</v>
       </c>
       <c r="H60" s="18">
         <f t="shared" si="20"/>
-        <v>19351378.656255007</v>
+        <v>18802006.554604501</v>
       </c>
       <c r="I60" s="18">
         <f t="shared" si="20"/>
-        <v>20381278.286946416</v>
+        <v>19826459.542315811</v>
       </c>
       <c r="J60" s="18">
         <f t="shared" si="20"/>
-        <v>19915127.077766001</v>
+        <v>19353602.813688457</v>
       </c>
       <c r="K60" s="18">
         <f t="shared" si="20"/>
-        <v>19123325.264523149</v>
+        <v>18556233.925296843</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -34276,7 +34276,7 @@
       </c>
       <c r="D62" s="18">
         <f t="shared" si="22"/>
-        <v>9835249.3573135138</v>
+        <v>10340435.004749388</v>
       </c>
       <c r="E62" s="18">
         <f t="shared" si="22"/>
@@ -34318,35 +34318,35 @@
       </c>
       <c r="D63" s="18">
         <f t="shared" ref="D63:K63" si="23">D60-D62</f>
-        <v>3713404.0896579623</v>
+        <v>2680175.5823488235</v>
       </c>
       <c r="E63" s="18">
         <f t="shared" si="23"/>
-        <v>21235961.990138888</v>
+        <v>20704070.977822602</v>
       </c>
       <c r="F63" s="18">
         <f t="shared" si="23"/>
-        <v>20968557.496468782</v>
+        <v>20431128.688819885</v>
       </c>
       <c r="G63" s="18">
         <f t="shared" si="23"/>
-        <v>20815661.898411393</v>
+        <v>20272850.80516386</v>
       </c>
       <c r="H63" s="18">
         <f t="shared" si="23"/>
-        <v>19351378.656255007</v>
+        <v>18802006.554604501</v>
       </c>
       <c r="I63" s="18">
         <f t="shared" si="23"/>
-        <v>20381278.286946416</v>
+        <v>19826459.542315811</v>
       </c>
       <c r="J63" s="18">
         <f t="shared" si="23"/>
-        <v>19915127.077766001</v>
+        <v>19353602.813688457</v>
       </c>
       <c r="K63" s="18">
         <f t="shared" si="23"/>
-        <v>19123325.264523149</v>
+        <v>18556233.925296843</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -34402,35 +34402,35 @@
       </c>
       <c r="D65" s="18">
         <f t="shared" ref="D65:K65" si="25">D63</f>
-        <v>3713404.0896579623</v>
+        <v>2680175.5823488235</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="25"/>
-        <v>21235961.990138888</v>
+        <v>20704070.977822602</v>
       </c>
       <c r="F65" s="18">
         <f t="shared" si="25"/>
-        <v>20968557.496468782</v>
+        <v>20431128.688819885</v>
       </c>
       <c r="G65" s="18">
         <f t="shared" si="25"/>
-        <v>20815661.898411393</v>
+        <v>20272850.80516386</v>
       </c>
       <c r="H65" s="18">
         <f t="shared" si="25"/>
-        <v>19351378.656255007</v>
+        <v>18802006.554604501</v>
       </c>
       <c r="I65" s="18">
         <f t="shared" si="25"/>
-        <v>20381278.286946416</v>
+        <v>19826459.542315811</v>
       </c>
       <c r="J65" s="18">
         <f t="shared" si="25"/>
-        <v>19915127.077766001</v>
+        <v>19353602.813688457</v>
       </c>
       <c r="K65" s="18">
         <f t="shared" si="25"/>
-        <v>19123325.264523149</v>
+        <v>18556233.925296843</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -34563,7 +34563,7 @@
       </c>
       <c r="C71" s="18">
         <f>IF(C70,C46-Parametros!$C$217,0)</f>
-        <v>23997421.357313514</v>
+        <v>24502607.004749388</v>
       </c>
       <c r="D71" s="18">
         <f>IF(D70,D46-Parametros!$C$217,0)</f>
@@ -34605,7 +34605,7 @@
       </c>
       <c r="C72" s="253">
         <f>IF(C70,C46-Parametros!$C$216,0)</f>
-        <v>28997421.357313514</v>
+        <v>29502607.004749388</v>
       </c>
       <c r="D72" s="253">
         <f>IF(D70,D46-Parametros!$C$216,0)</f>
@@ -34731,7 +34731,7 @@
       </c>
       <c r="C75" s="18">
         <f>IF(C72&gt;C74,MAX(C71-C74,0),0)</f>
-        <v>23997421.357313514</v>
+        <v>24502607.004749388</v>
       </c>
       <c r="D75" s="18">
         <f t="shared" ref="D75:K75" si="29">IF(D72&gt;D74,MAX(D71-D74,0),0)</f>
@@ -34773,7 +34773,7 @@
       </c>
       <c r="C76" s="16">
         <f>IF(C72&gt;C74,C72-C74,0)</f>
-        <v>28997421.357313514</v>
+        <v>29502607.004749388</v>
       </c>
       <c r="D76" s="16">
         <f t="shared" ref="D76:K76" si="30">IF(D72&gt;D74,D72-D74,0)</f>
@@ -34899,7 +34899,7 @@
       </c>
       <c r="C79" s="18">
         <f>IF(C76&gt;C78,C76-C78,0)</f>
-        <v>13997421.357313514</v>
+        <v>14502607.004749388</v>
       </c>
       <c r="D79" s="18">
         <f t="shared" ref="D79:K79" si="33">IF(D76&gt;D78,D76-D78,0)</f>
@@ -34941,7 +34941,7 @@
       </c>
       <c r="C80" s="253">
         <f>IF(C76&gt;C78,MAX(C75-C78,0),0)</f>
-        <v>8997421.3573135138</v>
+        <v>9502607.0047493875</v>
       </c>
       <c r="D80" s="253">
         <f t="shared" ref="D80:K80" si="34">IF(D76&gt;D78,MAX(D75-D78,0),0)</f>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="C82" s="16">
         <f>IF(C81,C80,0)</f>
-        <v>8997421.3573135138</v>
+        <v>9502607.0047493875</v>
       </c>
       <c r="D82" s="16">
         <f t="shared" ref="D82:K82" si="36">IF(D81,D79,0)</f>
@@ -35067,7 +35067,7 @@
       </c>
       <c r="C83" s="18">
         <f>C79</f>
-        <v>13997421.357313514</v>
+        <v>14502607.004749388</v>
       </c>
       <c r="D83" s="18">
         <f t="shared" ref="D83:K83" si="37">D79-D82</f>
@@ -36255,7 +36255,7 @@
       </c>
       <c r="D116" s="203">
         <f>C119</f>
-        <v>9835249.3573135138</v>
+        <v>10340435.004749388</v>
       </c>
       <c r="E116" s="203">
         <f t="shared" ref="E116:K116" si="55">D119</f>
@@ -36293,7 +36293,7 @@
       </c>
       <c r="C117" s="204">
         <f t="shared" ref="C117:K117" si="56">C82</f>
-        <v>8997421.3573135138</v>
+        <v>9502607.0047493875</v>
       </c>
       <c r="D117" s="204">
         <f t="shared" si="56"/>
@@ -36339,7 +36339,7 @@
       </c>
       <c r="D118" s="203">
         <f t="shared" si="57"/>
-        <v>9835249.3573135138</v>
+        <v>10340435.004749388</v>
       </c>
       <c r="E118" s="203">
         <f t="shared" si="57"/>
@@ -36377,7 +36377,7 @@
       </c>
       <c r="C119" s="18">
         <f>C116+C117-C118</f>
-        <v>9835249.3573135138</v>
+        <v>10340435.004749388</v>
       </c>
       <c r="D119" s="18">
         <f t="shared" ref="D119:K119" si="58">D116+D117-D118</f>
@@ -36427,8 +36427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36716,39 +36716,39 @@
       </c>
       <c r="D13" s="232">
         <f>'Costo de ventas'!D38</f>
-        <v>165375836.88916117</v>
+        <v>165103070.73531502</v>
       </c>
       <c r="E13" s="232">
         <f>'Costo de ventas'!E38</f>
-        <v>166874245.75337958</v>
+        <v>166577785.7753914</v>
       </c>
       <c r="F13" s="232">
         <f>'Costo de ventas'!F38</f>
-        <v>168821575.05213097</v>
+        <v>168522051.19937801</v>
       </c>
       <c r="G13" s="232">
         <f>'Costo de ventas'!G38</f>
-        <v>171671060.53304312</v>
+        <v>171368419.12671769</v>
       </c>
       <c r="H13" s="232">
         <f>'Costo de ventas'!H38</f>
-        <v>174686386.93366829</v>
+        <v>174380709.70442995</v>
       </c>
       <c r="I13" s="232">
         <f>'Costo de ventas'!I38</f>
-        <v>178212628.93191189</v>
+        <v>177903282.85061368</v>
       </c>
       <c r="J13" s="232">
         <f>'Costo de ventas'!J38</f>
-        <v>181343354.11142123</v>
+        <v>181030914.51363638</v>
       </c>
       <c r="K13" s="232">
         <f>'Costo de ventas'!K38</f>
-        <v>184419435.29316992</v>
+        <v>184103246.4159199</v>
       </c>
       <c r="L13" s="232">
         <f>'Costo de ventas'!L38</f>
-        <v>187226483.37566379</v>
+        <v>186907132.60931185</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -36761,39 +36761,39 @@
       </c>
       <c r="D14" s="85">
         <f t="shared" ref="D14:L14" si="0">SUM(D8:D13)</f>
-        <v>193545679.07577279</v>
+        <v>193272912.92192665</v>
       </c>
       <c r="E14" s="85">
         <f t="shared" si="0"/>
-        <v>190732181.27092716</v>
+        <v>190435721.29293898</v>
       </c>
       <c r="F14" s="85">
         <f t="shared" si="0"/>
-        <v>193395849.35461432</v>
+        <v>193096325.50186136</v>
       </c>
       <c r="G14" s="85">
         <f t="shared" si="0"/>
-        <v>196950472.97962257</v>
+        <v>196647831.57329714</v>
       </c>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>200719086.08092916</v>
+        <v>200413408.85169083</v>
       </c>
       <c r="I14" s="85">
         <f t="shared" si="0"/>
-        <v>205213867.85169548</v>
+        <v>204904521.77039728</v>
       </c>
       <c r="J14" s="85">
         <f t="shared" si="0"/>
-        <v>209082087.85324049</v>
+        <v>208769648.25545567</v>
       </c>
       <c r="K14" s="85">
         <f t="shared" si="0"/>
-        <v>212945977.85475585</v>
+        <v>212629788.97750583</v>
       </c>
       <c r="L14" s="85">
         <f t="shared" si="0"/>
-        <v>216516783.93433416</v>
+        <v>216197433.16798222</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -36983,7 +36983,7 @@
       </c>
       <c r="D21" s="232">
         <f>'Flujo de caja'!C119</f>
-        <v>9835249.3573135138</v>
+        <v>10340435.004749388</v>
       </c>
       <c r="E21" s="232">
         <f>'Flujo de caja'!D119</f>
@@ -37028,7 +37028,7 @@
       </c>
       <c r="D22" s="61">
         <f>SUM(D17:D21)</f>
-        <v>22232301.357313514</v>
+        <v>22737487.004749388</v>
       </c>
       <c r="E22" s="61">
         <f t="shared" ref="E22:L22" si="1">SUM(E17:E21)</f>
@@ -37076,39 +37076,39 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" ref="D24:L24" si="2">D14+D22</f>
-        <v>215777980.43308631</v>
+        <v>216010399.92667603</v>
       </c>
       <c r="E24" s="83">
         <f t="shared" si="2"/>
-        <v>201728195.27092716</v>
+        <v>201431735.29293898</v>
       </c>
       <c r="F24" s="83">
         <f t="shared" si="2"/>
-        <v>202990825.35461432</v>
+        <v>202691301.50186136</v>
       </c>
       <c r="G24" s="83">
         <f t="shared" si="2"/>
-        <v>205156910.97962257</v>
+        <v>204854269.57329714</v>
       </c>
       <c r="H24" s="83">
         <f t="shared" si="2"/>
-        <v>207636986.08092916</v>
+        <v>207331308.85169083</v>
       </c>
       <c r="I24" s="83">
         <f t="shared" si="2"/>
-        <v>210855229.85169548</v>
+        <v>210545883.77039728</v>
       </c>
       <c r="J24" s="83">
         <f t="shared" si="2"/>
-        <v>213746426.85324049</v>
+        <v>213433987.25545567</v>
       </c>
       <c r="K24" s="83">
         <f t="shared" si="2"/>
-        <v>216633293.85475585</v>
+        <v>216317104.97750583</v>
       </c>
       <c r="L24" s="83">
         <f t="shared" si="2"/>
-        <v>219227076.93433416</v>
+        <v>218907726.16798222</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -37360,39 +37360,39 @@
       </c>
       <c r="D35" s="232">
         <f>'IGV e IR'!C32</f>
-        <v>57479057.222311921</v>
+        <v>57121619.908209361</v>
       </c>
       <c r="E35" s="232">
         <f>'IGV e IR'!D32</f>
-        <v>77279005.81170398</v>
+        <v>76900180.183497354</v>
       </c>
       <c r="F35" s="232">
         <f>'IGV e IR'!E32</f>
-        <v>78449627.356543586</v>
+        <v>78067625.932052329</v>
       </c>
       <c r="G35" s="232">
         <f>'IGV e IR'!F32</f>
-        <v>80069652.704032138</v>
+        <v>79683674.497611508</v>
       </c>
       <c r="H35" s="232">
         <f>'IGV e IR'!G32</f>
-        <v>81570544.989825994</v>
+        <v>81180699.003818959</v>
       </c>
       <c r="I35" s="232">
         <f>'IGV e IR'!H32</f>
-        <v>82734748.814375505</v>
+        <v>82340202.622209877</v>
       </c>
       <c r="J35" s="232">
         <f>'IGV e IR'!I32</f>
-        <v>84720254.253693312</v>
+        <v>84321784.204475418</v>
       </c>
       <c r="K35" s="232">
         <f>'IGV e IR'!J32</f>
-        <v>86083809.188227355</v>
+        <v>85680535.582752526</v>
       </c>
       <c r="L35" s="232">
         <f>'IGV e IR'!K32</f>
-        <v>87155485.276364386</v>
+        <v>86748201.065693304</v>
       </c>
     </row>
     <row r="36" spans="2:12">
@@ -37423,39 +37423,39 @@
       </c>
       <c r="D37" s="80">
         <f t="shared" ref="D37:L37" si="3">SUM(D30:D36)</f>
-        <v>82156274.254076362</v>
+        <v>81798836.939973801</v>
       </c>
       <c r="E37" s="80">
         <f t="shared" si="3"/>
-        <v>108638191.27239272</v>
+        <v>108259365.64418609</v>
       </c>
       <c r="F37" s="80">
         <f t="shared" si="3"/>
-        <v>110490037.6840682</v>
+        <v>110108036.25957695</v>
       </c>
       <c r="G37" s="80">
         <f t="shared" si="3"/>
-        <v>112730735.24807946</v>
+        <v>112344757.04165883</v>
       </c>
       <c r="H37" s="80">
         <f t="shared" si="3"/>
-        <v>114894150.46356025</v>
+        <v>114504304.47755322</v>
       </c>
       <c r="I37" s="80">
         <f t="shared" si="3"/>
-        <v>116911651.03832994</v>
+        <v>116517104.84616432</v>
       </c>
       <c r="J37" s="80">
         <f t="shared" si="3"/>
-        <v>119544319.50134268</v>
+        <v>119145849.45212477</v>
       </c>
       <c r="K37" s="80">
         <f t="shared" si="3"/>
-        <v>121600992.64221571</v>
+        <v>121197719.03674088</v>
       </c>
       <c r="L37" s="80">
         <f t="shared" si="3"/>
-        <v>123344707.44313459</v>
+        <v>122937423.23246351</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -37611,39 +37611,39 @@
       </c>
       <c r="D45" s="83">
         <f t="shared" ref="D45:L45" si="5">D43+D37</f>
-        <v>82156274.254076362</v>
+        <v>81798836.939973801</v>
       </c>
       <c r="E45" s="83">
         <f t="shared" si="5"/>
-        <v>108638191.27239272</v>
+        <v>108259365.64418609</v>
       </c>
       <c r="F45" s="83">
         <f t="shared" si="5"/>
-        <v>110490037.6840682</v>
+        <v>110108036.25957695</v>
       </c>
       <c r="G45" s="83">
         <f t="shared" si="5"/>
-        <v>112730735.24807946</v>
+        <v>112344757.04165883</v>
       </c>
       <c r="H45" s="83">
         <f t="shared" si="5"/>
-        <v>114894150.46356025</v>
+        <v>114504304.47755322</v>
       </c>
       <c r="I45" s="83">
         <f t="shared" si="5"/>
-        <v>116911651.03832994</v>
+        <v>116517104.84616432</v>
       </c>
       <c r="J45" s="83">
         <f t="shared" si="5"/>
-        <v>119544319.50134268</v>
+        <v>119145849.45212477</v>
       </c>
       <c r="K45" s="83">
         <f t="shared" si="5"/>
-        <v>121600992.64221571</v>
+        <v>121197719.03674088</v>
       </c>
       <c r="L45" s="83">
         <f t="shared" si="5"/>
-        <v>123344707.44313459</v>
+        <v>122937423.23246351</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -37763,39 +37763,39 @@
       </c>
       <c r="D50" s="232">
         <f>EGP!C28</f>
-        <v>-57479057.222311921</v>
+        <v>-57121619.908209361</v>
       </c>
       <c r="E50" s="232">
         <f>EGP!D28</f>
-        <v>-134758063.03401589</v>
+        <v>-134021800.09170672</v>
       </c>
       <c r="F50" s="232">
         <f>EGP!E28</f>
-        <v>-213207690.39055949</v>
+        <v>-212089426.02375907</v>
       </c>
       <c r="G50" s="232">
         <f>EGP!F28</f>
-        <v>-293277343.09459162</v>
+        <v>-291773100.52137059</v>
       </c>
       <c r="H50" s="232">
         <f>EGP!G28</f>
-        <v>-374847888.08441758</v>
+        <v>-372953799.52518952</v>
       </c>
       <c r="I50" s="232">
         <f>EGP!H28</f>
-        <v>-457582636.8987931</v>
+        <v>-455294002.14739943</v>
       </c>
       <c r="J50" s="232">
         <f>EGP!I28</f>
-        <v>-542302891.15248644</v>
+        <v>-539615786.35187483</v>
       </c>
       <c r="K50" s="232">
         <f>EGP!J28</f>
-        <v>-628386700.34071374</v>
+        <v>-625296321.93462729</v>
       </c>
       <c r="L50" s="232">
         <f>EGP!K28</f>
-        <v>-715542185.61707807</v>
+        <v>-712044523.00032055</v>
       </c>
     </row>
     <row r="51" spans="2:12">
@@ -37808,39 +37808,39 @@
       </c>
       <c r="D51" s="83">
         <f t="shared" ref="D51:L51" si="6">SUM(D48:D50)</f>
-        <v>-25089057.222311921</v>
+        <v>-24731619.908209361</v>
       </c>
       <c r="E51" s="83">
         <f t="shared" si="6"/>
-        <v>-102368063.03401589</v>
+        <v>-101631800.09170672</v>
       </c>
       <c r="F51" s="83">
         <f t="shared" si="6"/>
-        <v>-180817690.39055949</v>
+        <v>-179699426.02375907</v>
       </c>
       <c r="G51" s="83">
         <f t="shared" si="6"/>
-        <v>-260887343.09459162</v>
+        <v>-259383100.52137059</v>
       </c>
       <c r="H51" s="83">
         <f t="shared" si="6"/>
-        <v>-342457888.08441758</v>
+        <v>-340563799.52518952</v>
       </c>
       <c r="I51" s="83">
         <f t="shared" si="6"/>
-        <v>-425192636.8987931</v>
+        <v>-422904002.14739943</v>
       </c>
       <c r="J51" s="83">
         <f t="shared" si="6"/>
-        <v>-509912891.15248644</v>
+        <v>-507225786.35187483</v>
       </c>
       <c r="K51" s="83">
         <f t="shared" si="6"/>
-        <v>-595996700.34071374</v>
+        <v>-592906321.93462729</v>
       </c>
       <c r="L51" s="83">
         <f t="shared" si="6"/>
-        <v>-683152185.61707807</v>
+        <v>-679654523.00032055</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -37869,35 +37869,35 @@
       </c>
       <c r="E53" s="83">
         <f t="shared" si="7"/>
-        <v>6270128.238376826</v>
+        <v>6627565.5524793714</v>
       </c>
       <c r="F53" s="83">
         <f t="shared" si="7"/>
-        <v>-70327652.706491292</v>
+        <v>-69591389.764182121</v>
       </c>
       <c r="G53" s="83">
         <f t="shared" si="7"/>
-        <v>-148156607.84651214</v>
+        <v>-147038343.47971177</v>
       </c>
       <c r="H53" s="83">
         <f t="shared" si="7"/>
-        <v>-227563737.62085733</v>
+        <v>-226059495.0476363</v>
       </c>
       <c r="I53" s="83">
         <f t="shared" si="7"/>
-        <v>-308280985.86046314</v>
+        <v>-306386897.30123508</v>
       </c>
       <c r="J53" s="83">
         <f t="shared" si="7"/>
-        <v>-390368571.65114379</v>
+        <v>-388079936.89975005</v>
       </c>
       <c r="K53" s="83">
         <f t="shared" si="7"/>
-        <v>-474395707.69849801</v>
+        <v>-471708602.8978864</v>
       </c>
       <c r="L53" s="83">
         <f t="shared" si="7"/>
-        <v>-559807478.17394352</v>
+        <v>-556717099.76785707</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -37946,39 +37946,39 @@
       </c>
       <c r="D57" s="83">
         <f t="shared" ref="D57:L57" si="8">D24-D53</f>
-        <v>158710763.40132186</v>
+        <v>158943182.89491159</v>
       </c>
       <c r="E57" s="83">
         <f t="shared" si="8"/>
-        <v>195458067.03255033</v>
+        <v>194804169.74045962</v>
       </c>
       <c r="F57" s="83">
         <f t="shared" si="8"/>
-        <v>273318478.06110561</v>
+        <v>272282691.26604348</v>
       </c>
       <c r="G57" s="83">
         <f t="shared" si="8"/>
-        <v>353313518.82613468</v>
+        <v>351892613.05300891</v>
       </c>
       <c r="H57" s="83">
         <f t="shared" si="8"/>
-        <v>435200723.70178652</v>
+        <v>433390803.89932716</v>
       </c>
       <c r="I57" s="83">
         <f t="shared" si="8"/>
-        <v>519136215.71215862</v>
+        <v>516932781.07163239</v>
       </c>
       <c r="J57" s="83">
         <f t="shared" si="8"/>
-        <v>604114998.50438428</v>
+        <v>601513924.15520573</v>
       </c>
       <c r="K57" s="83">
         <f t="shared" si="8"/>
-        <v>691029001.55325389</v>
+        <v>688025707.8753922</v>
       </c>
       <c r="L57" s="83">
         <f t="shared" si="8"/>
-        <v>779034555.10827768</v>
+        <v>775624825.9358393</v>
       </c>
     </row>
   </sheetData>
@@ -37996,8 +37996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -38622,7 +38622,7 @@
         <v>0.75</v>
       </c>
       <c r="F25" s="297">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G25" s="297">
         <v>0.5</v>
@@ -38633,7 +38633,7 @@
       <c r="I25" s="238"/>
       <c r="J25" s="235">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="K25" s="299">
         <v>0.7</v>

--- a/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
+++ b/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="588">
   <si>
     <t>Kamish</t>
   </si>
@@ -1810,6 +1810,9 @@
   </si>
   <si>
     <t>pamcho3</t>
+  </si>
+  <si>
+    <t>panchito</t>
   </si>
 </sst>
 </file>
@@ -3599,11 +3602,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -22921,10 +22924,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="18">
-      <c r="B17" s="335" t="s">
+      <c r="B17" s="336" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="335"/>
+      <c r="C17" s="336"/>
       <c r="D17" s="106">
         <v>2013</v>
       </c>
@@ -22954,11 +22957,11 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="336" t="str">
+      <c r="B18" s="335" t="str">
         <f>'Plan de Ventas'!B7</f>
         <v xml:space="preserve">Grissini </v>
       </c>
-      <c r="C18" s="336"/>
+      <c r="C18" s="335"/>
       <c r="D18" s="18">
         <f>'Plan de producción'!D39</f>
         <v>738741.66666666663</v>
@@ -22997,11 +23000,11 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="336" t="str">
+      <c r="B19" s="335" t="str">
         <f>'Plan de Ventas'!B8</f>
         <v>Kamish</v>
       </c>
-      <c r="C19" s="336"/>
+      <c r="C19" s="335"/>
       <c r="D19" s="18">
         <f>'Plan de producción'!D40</f>
         <v>631001.38888888876</v>
@@ -23040,11 +23043,11 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="336" t="str">
+      <c r="B20" s="335" t="str">
         <f>'Plan de Ventas'!B9</f>
         <v>Roscas con pisco</v>
       </c>
-      <c r="C20" s="336"/>
+      <c r="C20" s="335"/>
       <c r="D20" s="18">
         <f>'Plan de producción'!D41</f>
         <v>505055.5555555555</v>
@@ -23088,11 +23091,11 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="18">
-      <c r="B24" s="335" t="str">
+      <c r="B24" s="336" t="str">
         <f>B17</f>
         <v>Producto</v>
       </c>
-      <c r="C24" s="335"/>
+      <c r="C24" s="336"/>
       <c r="D24" s="106">
         <f t="shared" ref="D24:L24" si="1">D17</f>
         <v>2013</v>
@@ -23131,11 +23134,11 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="336" t="str">
+      <c r="B25" s="335" t="str">
         <f t="shared" ref="B25:B26" si="2">B18</f>
         <v xml:space="preserve">Grissini </v>
       </c>
-      <c r="C25" s="336"/>
+      <c r="C25" s="335"/>
       <c r="D25" s="190">
         <f t="shared" ref="D25:L25" si="3">D18/SUM(D$18:D$20)</f>
         <v>0.39403787814246716</v>
@@ -23174,11 +23177,11 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="336" t="str">
+      <c r="B26" s="335" t="str">
         <f t="shared" si="2"/>
         <v>Kamish</v>
       </c>
-      <c r="C26" s="336"/>
+      <c r="C26" s="335"/>
       <c r="D26" s="190">
         <f t="shared" ref="D26:L26" si="4">D19/SUM(D$18:D$20)</f>
         <v>0.33657022420926686</v>
@@ -23217,11 +23220,11 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="336" t="str">
+      <c r="B27" s="335" t="str">
         <f>B20</f>
         <v>Roscas con pisco</v>
       </c>
-      <c r="C27" s="336"/>
+      <c r="C27" s="335"/>
       <c r="D27" s="190">
         <f t="shared" ref="D27:L27" si="5">D20/SUM(D$18:D$20)</f>
         <v>0.26939189764826593</v>
@@ -23285,10 +23288,10 @@
       <c r="A33" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="335" t="s">
+      <c r="B33" s="336" t="s">
         <v>342</v>
       </c>
-      <c r="C33" s="335"/>
+      <c r="C33" s="336"/>
       <c r="D33" s="106">
         <f t="shared" ref="D33:L33" si="6">D24</f>
         <v>2013</v>
@@ -23327,11 +23330,11 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="B34" s="336" t="str">
+      <c r="B34" s="335" t="str">
         <f>B7</f>
         <v>Servicios</v>
       </c>
-      <c r="C34" s="336"/>
+      <c r="C34" s="335"/>
       <c r="D34" s="18">
         <f t="shared" ref="D34:L34" si="7">D$25*D7</f>
         <v>0</v>
@@ -23370,11 +23373,11 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="B35" s="336" t="str">
+      <c r="B35" s="335" t="str">
         <f>B8</f>
         <v>Respuestos y Mantenimiento</v>
       </c>
-      <c r="C35" s="336"/>
+      <c r="C35" s="335"/>
       <c r="D35" s="18">
         <f t="shared" ref="D35:L35" si="8">D$25*D8</f>
         <v>38504.247115540187</v>
@@ -23413,11 +23416,11 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="B36" s="336" t="str">
+      <c r="B36" s="335" t="str">
         <f>B9</f>
         <v>Depreciación de maquinaria</v>
       </c>
-      <c r="C36" s="336"/>
+      <c r="C36" s="335"/>
       <c r="D36" s="18">
         <f t="shared" ref="D36:L36" si="9">D$25*D9</f>
         <v>552062.04071696592</v>
@@ -23456,11 +23459,11 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="B37" s="336" t="str">
+      <c r="B37" s="335" t="str">
         <f>B10</f>
         <v>MO Indirecta</v>
       </c>
-      <c r="C37" s="336"/>
+      <c r="C37" s="335"/>
       <c r="D37" s="18">
         <f t="shared" ref="D37:L37" si="10">D$25*D10</f>
         <v>7409559.1874090182</v>
@@ -23508,11 +23511,11 @@
       <c r="A41" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="B41" s="335" t="str">
+      <c r="B41" s="336" t="str">
         <f t="shared" ref="B41" si="11">B33</f>
         <v>Categoría</v>
       </c>
-      <c r="C41" s="335"/>
+      <c r="C41" s="336"/>
       <c r="D41" s="106">
         <f t="shared" ref="D41:L41" si="12">D33</f>
         <v>2013</v>
@@ -23551,11 +23554,11 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="336" t="str">
+      <c r="B42" s="335" t="str">
         <f>B34</f>
         <v>Servicios</v>
       </c>
-      <c r="C42" s="336"/>
+      <c r="C42" s="335"/>
       <c r="D42" s="18">
         <f t="shared" ref="D42:L42" si="13">D$26*D7</f>
         <v>0</v>
@@ -23594,11 +23597,11 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="B43" s="336" t="str">
+      <c r="B43" s="335" t="str">
         <f>B35</f>
         <v>Respuestos y Mantenimiento</v>
       </c>
-      <c r="C43" s="336"/>
+      <c r="C43" s="335"/>
       <c r="D43" s="18">
         <f t="shared" ref="D43:L43" si="14">D$26*D8</f>
         <v>32888.673408196613</v>
@@ -23637,11 +23640,11 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="B44" s="336" t="str">
+      <c r="B44" s="335" t="str">
         <f>B36</f>
         <v>Depreciación de maquinaria</v>
       </c>
-      <c r="C44" s="336"/>
+      <c r="C44" s="335"/>
       <c r="D44" s="18">
         <f t="shared" ref="D44:L44" si="15">D$26*D9</f>
         <v>471547.67378570279</v>
@@ -23680,11 +23683,11 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="B45" s="336" t="str">
+      <c r="B45" s="335" t="str">
         <f>B37</f>
         <v>MO Indirecta</v>
       </c>
-      <c r="C45" s="336"/>
+      <c r="C45" s="335"/>
       <c r="D45" s="18">
         <f t="shared" ref="D45:L45" si="16">D$26*D10</f>
         <v>6328927.0786714116</v>
@@ -23732,11 +23735,11 @@
       <c r="A49" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="335" t="str">
+      <c r="B49" s="336" t="str">
         <f t="shared" ref="B49" si="17">B41</f>
         <v>Categoría</v>
       </c>
-      <c r="C49" s="335"/>
+      <c r="C49" s="336"/>
       <c r="D49" s="106">
         <f t="shared" ref="D49:L49" si="18">D41</f>
         <v>2013</v>
@@ -23775,11 +23778,11 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="B50" s="336" t="str">
+      <c r="B50" s="335" t="str">
         <f>B42</f>
         <v>Servicios</v>
       </c>
-      <c r="C50" s="336"/>
+      <c r="C50" s="335"/>
       <c r="D50" s="18">
         <f t="shared" ref="D50:L50" si="19">D$27*D7</f>
         <v>0</v>
@@ -23818,11 +23821,11 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="B51" s="336" t="str">
+      <c r="B51" s="335" t="str">
         <f t="shared" ref="B51:B53" si="20">B43</f>
         <v>Respuestos y Mantenimiento</v>
       </c>
-      <c r="C51" s="336"/>
+      <c r="C51" s="335"/>
       <c r="D51" s="18">
         <f t="shared" ref="D51:L51" si="21">D$27*D8</f>
         <v>26324.200726263192</v>
@@ -23861,11 +23864,11 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="B52" s="336" t="str">
+      <c r="B52" s="335" t="str">
         <f t="shared" si="20"/>
         <v>Depreciación de maquinaria</v>
       </c>
-      <c r="C52" s="336"/>
+      <c r="C52" s="335"/>
       <c r="D52" s="18">
         <f t="shared" ref="D52:L52" si="22">D$27*D9</f>
         <v>377428.28549733118</v>
@@ -23904,11 +23907,11 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="B53" s="336" t="str">
+      <c r="B53" s="335" t="str">
         <f t="shared" si="20"/>
         <v>MO Indirecta</v>
       </c>
-      <c r="C53" s="336"/>
+      <c r="C53" s="335"/>
       <c r="D53" s="18">
         <f t="shared" ref="D53:L53" si="23">D$27*D10</f>
         <v>5065693.7339195693</v>
@@ -23948,12 +23951,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -23966,11 +23968,12 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -37997,7 +38000,7 @@
   <dimension ref="B2:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -38737,7 +38740,9 @@
     <row r="31" spans="2:17">
       <c r="E31" s="236"/>
       <c r="F31" s="236"/>
-      <c r="G31" s="236"/>
+      <c r="G31" s="236" t="s">
+        <v>587</v>
+      </c>
       <c r="H31" s="236"/>
     </row>
     <row r="32" spans="2:17" ht="23" customHeight="1">

--- a/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
+++ b/trunk/GProyectos/MSE - 2013 - 2 alfonso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1812,7 +1812,7 @@
     <t>pamcho3</t>
   </si>
   <si>
-    <t>panchito</t>
+    <t>panchitooooototto</t>
   </si>
 </sst>
 </file>
@@ -25992,8 +25992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K221"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26893,6 +26893,9 @@
     <row r="53" spans="2:10" ht="15" customHeight="1">
       <c r="B53" s="9" t="s">
         <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="14" customHeight="1">
@@ -37999,8 +38002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -38740,9 +38743,7 @@
     <row r="31" spans="2:17">
       <c r="E31" s="236"/>
       <c r="F31" s="236"/>
-      <c r="G31" s="236" t="s">
-        <v>587</v>
-      </c>
+      <c r="G31" s="236"/>
       <c r="H31" s="236"/>
     </row>
     <row r="32" spans="2:17" ht="23" customHeight="1">
